--- a/exam/Flowchart-template.xlsx
+++ b/exam/Flowchart-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrse\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrse\Desktop\applied_ML_faelles\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6020FE5-7993-488C-9A47-63C4315D0C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD8C629-EEEB-49A0-9076-7AAA9E47715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{CF7B0F55-F5ED-4C07-86B8-3DA04D9ABD5C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>Print all parameters</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Fine tune model</t>
+  </si>
+  <si>
+    <t>Normal CNN model</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -830,6 +833,381 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,379 +1244,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7564,6 +7585,1089 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FBF3A6-1142-4826-A771-10F1E8937C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21648420" y="15765781"/>
+          <a:ext cx="0" cy="175259"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850DEB30-13BB-4C78-8844-DEE812EBA627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25214580" y="12839700"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6B4D5B-D992-4DC2-A37B-EE3D25E66420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25214580" y="13434060"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5731F19A-94ED-4FF6-B005-A1F547F1B148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25214580" y="14028420"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B2608E-1345-46FA-AAA4-A107BCF5781C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25214580" y="14622780"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B640D4-F9D1-44ED-8433-404A3D299066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25214580" y="15217140"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91500A13-DE30-423F-A0E9-983A0519E018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25204719" y="12268200"/>
+          <a:ext cx="9861" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21594C05-613D-4968-9059-12EC37067D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23431500" y="15941040"/>
+          <a:ext cx="0" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82DB01E2-7CCC-4D36-9CCA-478BD0624815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21648420" y="12839700"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E876F2A-5240-4CB0-A4B1-1BDF0E68A7B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21648420" y="13434060"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C9B5FC-405B-417E-8AB5-9A7EE40B4E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21648420" y="14028420"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EB583D-9529-48CD-9176-4B67BC8F3B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21648420" y="14622780"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA94266-05C1-4DB6-B4D8-4E2F191E5380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21648420" y="15217140"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A2B136-1D3D-4E64-805C-47C1B8F765AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21648420" y="12268200"/>
+          <a:ext cx="0" cy="197672"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16A4EEB-346B-4B7B-ADEF-B33C6A24420B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21648420" y="15941040"/>
+          <a:ext cx="3566160" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8B94B6-FF94-4B9D-9754-8F89B2400F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25214580" y="15765780"/>
+          <a:ext cx="0" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Left Brace 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407DC2FF-FCF5-405F-A8A4-42F525AA7DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19469100" y="13632180"/>
+          <a:ext cx="792480" cy="1584960"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 51136"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>192742</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A94DBB-A270-4CA6-9FC0-7625956D043F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11001935" y="15668064"/>
+          <a:ext cx="1909484" cy="246531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1000" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Improve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1000" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ment of generalization</a:t>
+          </a:r>
+          <a:endParaRPr lang="da-DK" sz="1000" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7871,8 +8975,8 @@
   </sheetPr>
   <dimension ref="A1:DX106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y65" sqref="Y65:BD89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CT64" sqref="BI64:CT89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7883,54 +8987,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="95" t="s">
+      <c r="AG2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="97"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="57"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
-      <c r="AQ2" s="113" t="s">
+      <c r="AQ2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="114"/>
-      <c r="AT2" s="114"/>
-      <c r="AU2" s="114"/>
-      <c r="AV2" s="114"/>
-      <c r="AW2" s="114"/>
-      <c r="AX2" s="115"/>
+      <c r="AR2" s="143"/>
+      <c r="AS2" s="143"/>
+      <c r="AT2" s="143"/>
+      <c r="AU2" s="143"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="143"/>
+      <c r="AX2" s="144"/>
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
       <c r="BA2" s="5"/>
@@ -7948,28 +9052,28 @@
       <c r="BM2" s="7"/>
       <c r="CI2" s="5"/>
       <c r="CJ2" s="5"/>
-      <c r="CK2" s="95" t="s">
+      <c r="CK2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="CL2" s="96"/>
-      <c r="CM2" s="96"/>
-      <c r="CN2" s="96"/>
-      <c r="CO2" s="97"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="56"/>
+      <c r="CN2" s="56"/>
+      <c r="CO2" s="57"/>
       <c r="CP2" s="5"/>
       <c r="CQ2" s="5"/>
       <c r="CR2" s="5"/>
       <c r="CS2" s="5"/>
       <c r="CT2" s="5"/>
-      <c r="CU2" s="174" t="s">
+      <c r="CU2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="CV2" s="174"/>
-      <c r="CW2" s="174"/>
-      <c r="CX2" s="174"/>
-      <c r="CY2" s="174"/>
-      <c r="CZ2" s="174"/>
-      <c r="DA2" s="174"/>
-      <c r="DB2" s="174"/>
+      <c r="CV2" s="61"/>
+      <c r="CW2" s="61"/>
+      <c r="CX2" s="61"/>
+      <c r="CY2" s="61"/>
+      <c r="CZ2" s="61"/>
+      <c r="DA2" s="61"/>
+      <c r="DB2" s="61"/>
       <c r="DC2" s="5"/>
       <c r="DD2" s="5"/>
       <c r="DE2" s="5"/>
@@ -7988,36 +9092,36 @@
       <c r="DR2" s="7"/>
     </row>
     <row r="3" spans="1:128" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="100"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="60"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="117"/>
-      <c r="AW3" s="117"/>
-      <c r="AX3" s="118"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="146"/>
+      <c r="AS3" s="146"/>
+      <c r="AT3" s="146"/>
+      <c r="AU3" s="146"/>
+      <c r="AV3" s="146"/>
+      <c r="AW3" s="146"/>
+      <c r="AX3" s="147"/>
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
@@ -8040,24 +9144,24 @@
       <c r="CF3" s="34"/>
       <c r="CI3" s="5"/>
       <c r="CJ3" s="5"/>
-      <c r="CK3" s="98"/>
-      <c r="CL3" s="99"/>
-      <c r="CM3" s="99"/>
-      <c r="CN3" s="99"/>
-      <c r="CO3" s="100"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="59"/>
+      <c r="CM3" s="59"/>
+      <c r="CN3" s="59"/>
+      <c r="CO3" s="60"/>
       <c r="CP3" s="5"/>
       <c r="CQ3" s="5"/>
       <c r="CR3" s="5"/>
       <c r="CS3" s="5"/>
       <c r="CT3" s="5"/>
-      <c r="CU3" s="174"/>
-      <c r="CV3" s="174"/>
-      <c r="CW3" s="174"/>
-      <c r="CX3" s="174"/>
-      <c r="CY3" s="174"/>
-      <c r="CZ3" s="174"/>
-      <c r="DA3" s="174"/>
-      <c r="DB3" s="174"/>
+      <c r="CU3" s="61"/>
+      <c r="CV3" s="61"/>
+      <c r="CW3" s="61"/>
+      <c r="CX3" s="61"/>
+      <c r="CY3" s="61"/>
+      <c r="CZ3" s="61"/>
+      <c r="DA3" s="61"/>
+      <c r="DB3" s="61"/>
       <c r="DC3" s="5"/>
       <c r="DD3" s="5"/>
       <c r="DE3" s="5"/>
@@ -8076,16 +9180,16 @@
       <c r="DR3" s="7"/>
     </row>
     <row r="4" spans="1:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
@@ -8109,17 +9213,17 @@
       <c r="AY4" s="5"/>
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
-      <c r="BB4" s="107" t="s">
+      <c r="BB4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="108"/>
-      <c r="BG4" s="108"/>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="109"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="45"/>
       <c r="BK4" s="5"/>
       <c r="BL4" s="6"/>
       <c r="BM4" s="7"/>
@@ -8151,33 +9255,33 @@
       <c r="DC4" s="5"/>
       <c r="DD4" s="5"/>
       <c r="DE4" s="5"/>
-      <c r="DF4" s="107" t="s">
+      <c r="DF4" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="DG4" s="108"/>
-      <c r="DH4" s="108"/>
-      <c r="DI4" s="108"/>
-      <c r="DJ4" s="108"/>
-      <c r="DK4" s="108"/>
-      <c r="DL4" s="108"/>
-      <c r="DM4" s="108"/>
-      <c r="DN4" s="108"/>
-      <c r="DO4" s="109"/>
+      <c r="DG4" s="44"/>
+      <c r="DH4" s="44"/>
+      <c r="DI4" s="44"/>
+      <c r="DJ4" s="44"/>
+      <c r="DK4" s="44"/>
+      <c r="DL4" s="44"/>
+      <c r="DM4" s="44"/>
+      <c r="DN4" s="44"/>
+      <c r="DO4" s="45"/>
       <c r="DP4" s="5"/>
       <c r="DQ4" s="6"/>
       <c r="DR4" s="7"/>
     </row>
     <row r="5" spans="1:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
@@ -8201,15 +9305,15 @@
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="111"/>
-      <c r="BE5" s="111"/>
-      <c r="BF5" s="111"/>
-      <c r="BG5" s="111"/>
-      <c r="BH5" s="111"/>
-      <c r="BI5" s="111"/>
-      <c r="BJ5" s="112"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="48"/>
       <c r="BK5" s="5"/>
       <c r="BL5" s="6"/>
       <c r="BM5" s="7"/>
@@ -8241,69 +9345,69 @@
       <c r="DC5" s="5"/>
       <c r="DD5" s="5"/>
       <c r="DE5" s="5"/>
-      <c r="DF5" s="110"/>
-      <c r="DG5" s="111"/>
-      <c r="DH5" s="111"/>
-      <c r="DI5" s="111"/>
-      <c r="DJ5" s="111"/>
-      <c r="DK5" s="111"/>
-      <c r="DL5" s="111"/>
-      <c r="DM5" s="111"/>
-      <c r="DN5" s="111"/>
-      <c r="DO5" s="112"/>
+      <c r="DF5" s="46"/>
+      <c r="DG5" s="47"/>
+      <c r="DH5" s="47"/>
+      <c r="DI5" s="47"/>
+      <c r="DJ5" s="47"/>
+      <c r="DK5" s="47"/>
+      <c r="DL5" s="47"/>
+      <c r="DM5" s="47"/>
+      <c r="DN5" s="47"/>
+      <c r="DO5" s="48"/>
       <c r="DP5" s="5"/>
       <c r="DQ5" s="6"/>
       <c r="DR5" s="7"/>
     </row>
     <row r="6" spans="1:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="AE6" s="101" t="s">
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="AE6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="103"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="64"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
-      <c r="AQ6" s="63" t="s">
+      <c r="AQ6" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="65"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="98"/>
       <c r="AY6" s="5"/>
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
-      <c r="BB6" s="69" t="s">
+      <c r="BB6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="70"/>
-      <c r="BF6" s="70"/>
-      <c r="BG6" s="70"/>
-      <c r="BH6" s="70"/>
-      <c r="BI6" s="70"/>
-      <c r="BJ6" s="71"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="74"/>
       <c r="BK6" s="5"/>
       <c r="BL6" s="6"/>
       <c r="BM6" s="7"/>
@@ -8312,30 +9416,30 @@
       <c r="CD6" s="34"/>
       <c r="CE6" s="34"/>
       <c r="CF6" s="34"/>
-      <c r="CI6" s="101" t="s">
+      <c r="CI6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="CJ6" s="102"/>
-      <c r="CK6" s="102"/>
-      <c r="CL6" s="102"/>
-      <c r="CM6" s="102"/>
-      <c r="CN6" s="102"/>
-      <c r="CO6" s="102"/>
-      <c r="CP6" s="102"/>
-      <c r="CQ6" s="103"/>
+      <c r="CJ6" s="63"/>
+      <c r="CK6" s="63"/>
+      <c r="CL6" s="63"/>
+      <c r="CM6" s="63"/>
+      <c r="CN6" s="63"/>
+      <c r="CO6" s="63"/>
+      <c r="CP6" s="63"/>
+      <c r="CQ6" s="64"/>
       <c r="CR6" s="5"/>
       <c r="CS6" s="5"/>
       <c r="CT6" s="5"/>
-      <c r="CU6" s="175" t="s">
+      <c r="CU6" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="CV6" s="175"/>
-      <c r="CW6" s="175"/>
-      <c r="CX6" s="175"/>
-      <c r="CY6" s="175"/>
-      <c r="CZ6" s="175"/>
-      <c r="DA6" s="175"/>
-      <c r="DB6" s="175"/>
+      <c r="CV6" s="68"/>
+      <c r="CW6" s="68"/>
+      <c r="CX6" s="68"/>
+      <c r="CY6" s="68"/>
+      <c r="CZ6" s="68"/>
+      <c r="DA6" s="68"/>
+      <c r="DB6" s="68"/>
       <c r="DC6" s="5"/>
       <c r="DD6" s="5"/>
       <c r="DE6" s="5"/>
@@ -8360,48 +9464,48 @@
       <c r="DX6" s="5"/>
     </row>
     <row r="7" spans="1:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="AE7" s="104"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="106"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="67"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="68"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="101"/>
       <c r="AY7" s="5"/>
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="73"/>
-      <c r="BG7" s="73"/>
-      <c r="BH7" s="73"/>
-      <c r="BI7" s="73"/>
-      <c r="BJ7" s="74"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="76"/>
+      <c r="BD7" s="76"/>
+      <c r="BE7" s="76"/>
+      <c r="BF7" s="76"/>
+      <c r="BG7" s="76"/>
+      <c r="BH7" s="76"/>
+      <c r="BI7" s="76"/>
+      <c r="BJ7" s="77"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="6"/>
       <c r="BM7" s="7"/>
@@ -8410,26 +9514,26 @@
       <c r="CD7" s="34"/>
       <c r="CE7" s="35"/>
       <c r="CF7" s="36"/>
-      <c r="CI7" s="104"/>
-      <c r="CJ7" s="105"/>
-      <c r="CK7" s="105"/>
-      <c r="CL7" s="105"/>
-      <c r="CM7" s="105"/>
-      <c r="CN7" s="105"/>
-      <c r="CO7" s="105"/>
-      <c r="CP7" s="105"/>
-      <c r="CQ7" s="106"/>
+      <c r="CI7" s="65"/>
+      <c r="CJ7" s="66"/>
+      <c r="CK7" s="66"/>
+      <c r="CL7" s="66"/>
+      <c r="CM7" s="66"/>
+      <c r="CN7" s="66"/>
+      <c r="CO7" s="66"/>
+      <c r="CP7" s="66"/>
+      <c r="CQ7" s="67"/>
       <c r="CR7" s="5"/>
       <c r="CS7" s="5"/>
       <c r="CT7" s="5"/>
-      <c r="CU7" s="175"/>
-      <c r="CV7" s="175"/>
-      <c r="CW7" s="175"/>
-      <c r="CX7" s="175"/>
-      <c r="CY7" s="175"/>
-      <c r="CZ7" s="175"/>
-      <c r="DA7" s="175"/>
-      <c r="DB7" s="175"/>
+      <c r="CU7" s="68"/>
+      <c r="CV7" s="68"/>
+      <c r="CW7" s="68"/>
+      <c r="CX7" s="68"/>
+      <c r="CY7" s="68"/>
+      <c r="CZ7" s="68"/>
+      <c r="DA7" s="68"/>
+      <c r="DB7" s="68"/>
       <c r="DC7" s="5"/>
       <c r="DD7" s="5"/>
       <c r="DE7" s="5"/>
@@ -8454,16 +9558,16 @@
       <c r="DX7" s="5"/>
     </row>
     <row r="8" spans="1:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
@@ -8476,30 +9580,30 @@
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
-      <c r="AQ8" s="81" t="s">
+      <c r="AQ8" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="83"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="92"/>
       <c r="AY8" s="5"/>
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
-      <c r="BB8" s="69" t="s">
+      <c r="BB8" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
-      <c r="BI8" s="70"/>
-      <c r="BJ8" s="71"/>
+      <c r="BC8" s="73"/>
+      <c r="BD8" s="73"/>
+      <c r="BE8" s="73"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="73"/>
+      <c r="BJ8" s="74"/>
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
@@ -8531,41 +9635,41 @@
       <c r="DC8" s="5"/>
       <c r="DD8" s="5"/>
       <c r="DE8" s="5"/>
-      <c r="DF8" s="107" t="s">
+      <c r="DF8" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="DG8" s="108"/>
-      <c r="DH8" s="108"/>
-      <c r="DI8" s="108"/>
-      <c r="DJ8" s="108"/>
-      <c r="DK8" s="108"/>
-      <c r="DL8" s="108"/>
-      <c r="DM8" s="108"/>
-      <c r="DN8" s="108"/>
-      <c r="DO8" s="109"/>
+      <c r="DG8" s="44"/>
+      <c r="DH8" s="44"/>
+      <c r="DI8" s="44"/>
+      <c r="DJ8" s="44"/>
+      <c r="DK8" s="44"/>
+      <c r="DL8" s="44"/>
+      <c r="DM8" s="44"/>
+      <c r="DN8" s="44"/>
+      <c r="DO8" s="45"/>
       <c r="DP8" s="5"/>
       <c r="DQ8" s="21"/>
       <c r="DR8" s="5"/>
-      <c r="DS8" s="168" t="s">
+      <c r="DS8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="DT8" s="169"/>
-      <c r="DU8" s="169"/>
-      <c r="DV8" s="169"/>
-      <c r="DW8" s="169"/>
-      <c r="DX8" s="170"/>
+      <c r="DT8" s="50"/>
+      <c r="DU8" s="50"/>
+      <c r="DV8" s="50"/>
+      <c r="DW8" s="50"/>
+      <c r="DX8" s="51"/>
     </row>
     <row r="9" spans="1:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
@@ -8578,26 +9682,26 @@
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="85"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="86"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="94"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="95"/>
       <c r="AY9" s="5"/>
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
-      <c r="BB9" s="72"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
-      <c r="BJ9" s="74"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="76"/>
+      <c r="BD9" s="76"/>
+      <c r="BE9" s="76"/>
+      <c r="BF9" s="76"/>
+      <c r="BG9" s="76"/>
+      <c r="BH9" s="76"/>
+      <c r="BI9" s="76"/>
+      <c r="BJ9" s="77"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
@@ -8628,25 +9732,25 @@
       <c r="DC9" s="5"/>
       <c r="DD9" s="5"/>
       <c r="DE9" s="5"/>
-      <c r="DF9" s="110"/>
-      <c r="DG9" s="111"/>
-      <c r="DH9" s="111"/>
-      <c r="DI9" s="111"/>
-      <c r="DJ9" s="111"/>
-      <c r="DK9" s="111"/>
-      <c r="DL9" s="111"/>
-      <c r="DM9" s="111"/>
-      <c r="DN9" s="111"/>
-      <c r="DO9" s="112"/>
+      <c r="DF9" s="46"/>
+      <c r="DG9" s="47"/>
+      <c r="DH9" s="47"/>
+      <c r="DI9" s="47"/>
+      <c r="DJ9" s="47"/>
+      <c r="DK9" s="47"/>
+      <c r="DL9" s="47"/>
+      <c r="DM9" s="47"/>
+      <c r="DN9" s="47"/>
+      <c r="DO9" s="48"/>
       <c r="DP9" s="5"/>
       <c r="DQ9" s="5"/>
       <c r="DR9" s="5"/>
-      <c r="DS9" s="171"/>
-      <c r="DT9" s="172"/>
-      <c r="DU9" s="172"/>
-      <c r="DV9" s="172"/>
-      <c r="DW9" s="172"/>
-      <c r="DX9" s="173"/>
+      <c r="DS9" s="52"/>
+      <c r="DT9" s="53"/>
+      <c r="DU9" s="53"/>
+      <c r="DV9" s="53"/>
+      <c r="DW9" s="53"/>
+      <c r="DX9" s="54"/>
     </row>
     <row r="10" spans="1:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE10" s="5"/>
@@ -8661,30 +9765,30 @@
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
-      <c r="AQ10" s="81" t="s">
+      <c r="AQ10" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="83"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="92"/>
       <c r="AY10" s="5"/>
       <c r="AZ10" s="5"/>
       <c r="BA10" s="5"/>
-      <c r="BB10" s="69" t="s">
+      <c r="BB10" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="BC10" s="70"/>
-      <c r="BD10" s="70"/>
-      <c r="BE10" s="70"/>
-      <c r="BF10" s="70"/>
-      <c r="BG10" s="70"/>
-      <c r="BH10" s="70"/>
-      <c r="BI10" s="70"/>
-      <c r="BJ10" s="71"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="73"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="73"/>
+      <c r="BJ10" s="74"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
@@ -8700,22 +9804,22 @@
       <c r="CN10" s="5"/>
       <c r="CO10" s="5"/>
       <c r="CP10" s="9"/>
-      <c r="CQ10" s="57" t="s">
+      <c r="CQ10" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="CR10" s="58"/>
+      <c r="CR10" s="155"/>
       <c r="CS10" s="5"/>
       <c r="CT10" s="5"/>
-      <c r="CU10" s="63" t="s">
+      <c r="CU10" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="CV10" s="64"/>
-      <c r="CW10" s="64"/>
-      <c r="CX10" s="64"/>
-      <c r="CY10" s="64"/>
-      <c r="CZ10" s="64"/>
-      <c r="DA10" s="64"/>
-      <c r="DB10" s="65"/>
+      <c r="CV10" s="97"/>
+      <c r="CW10" s="97"/>
+      <c r="CX10" s="97"/>
+      <c r="CY10" s="97"/>
+      <c r="CZ10" s="97"/>
+      <c r="DA10" s="97"/>
+      <c r="DB10" s="98"/>
       <c r="DC10" s="5"/>
       <c r="DD10" s="5"/>
       <c r="DE10" s="5"/>
@@ -8751,26 +9855,26 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="86"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="95"/>
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
-      <c r="BB11" s="72"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="73"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="73"/>
-      <c r="BJ11" s="74"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="76"/>
+      <c r="BD11" s="76"/>
+      <c r="BE11" s="76"/>
+      <c r="BF11" s="76"/>
+      <c r="BG11" s="76"/>
+      <c r="BH11" s="76"/>
+      <c r="BI11" s="76"/>
+      <c r="BJ11" s="77"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
@@ -8778,18 +9882,18 @@
       <c r="CD11" s="34"/>
       <c r="CE11" s="35"/>
       <c r="CF11" s="36"/>
-      <c r="CQ11" s="59"/>
-      <c r="CR11" s="60"/>
+      <c r="CQ11" s="156"/>
+      <c r="CR11" s="157"/>
       <c r="CS11" s="5"/>
       <c r="CT11" s="5"/>
-      <c r="CU11" s="66"/>
-      <c r="CV11" s="67"/>
-      <c r="CW11" s="67"/>
-      <c r="CX11" s="67"/>
-      <c r="CY11" s="67"/>
-      <c r="CZ11" s="67"/>
-      <c r="DA11" s="67"/>
-      <c r="DB11" s="68"/>
+      <c r="CU11" s="99"/>
+      <c r="CV11" s="100"/>
+      <c r="CW11" s="100"/>
+      <c r="CX11" s="100"/>
+      <c r="CY11" s="100"/>
+      <c r="CZ11" s="100"/>
+      <c r="DA11" s="100"/>
+      <c r="DB11" s="101"/>
       <c r="DC11" s="5"/>
       <c r="DD11" s="5"/>
       <c r="DE11" s="5"/>
@@ -8814,31 +9918,31 @@
       <c r="DX11" s="5"/>
     </row>
     <row r="12" spans="1:128" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="91"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="138"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
@@ -8850,30 +9954,30 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="81" t="s">
+      <c r="AQ12" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="83"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="92"/>
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
-      <c r="BB12" s="69" t="s">
+      <c r="BB12" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="70"/>
-      <c r="BE12" s="70"/>
-      <c r="BF12" s="70"/>
-      <c r="BG12" s="70"/>
-      <c r="BH12" s="70"/>
-      <c r="BI12" s="70"/>
-      <c r="BJ12" s="71"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="73"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="73"/>
+      <c r="BJ12" s="74"/>
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
@@ -8892,8 +9996,8 @@
       <c r="CD12" s="34"/>
       <c r="CE12" s="35"/>
       <c r="CF12" s="36"/>
-      <c r="CQ12" s="59"/>
-      <c r="CR12" s="60"/>
+      <c r="CQ12" s="156"/>
+      <c r="CR12" s="157"/>
       <c r="CS12" s="5"/>
       <c r="CT12" s="5"/>
       <c r="CU12" s="5"/>
@@ -8907,54 +10011,54 @@
       <c r="DC12" s="5"/>
       <c r="DD12" s="5"/>
       <c r="DE12" s="5"/>
-      <c r="DF12" s="107" t="s">
+      <c r="DF12" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="DG12" s="108"/>
-      <c r="DH12" s="108"/>
-      <c r="DI12" s="108"/>
-      <c r="DJ12" s="108"/>
-      <c r="DK12" s="108"/>
-      <c r="DL12" s="108"/>
-      <c r="DM12" s="108"/>
-      <c r="DN12" s="108"/>
-      <c r="DO12" s="109"/>
+      <c r="DG12" s="44"/>
+      <c r="DH12" s="44"/>
+      <c r="DI12" s="44"/>
+      <c r="DJ12" s="44"/>
+      <c r="DK12" s="44"/>
+      <c r="DL12" s="44"/>
+      <c r="DM12" s="44"/>
+      <c r="DN12" s="44"/>
+      <c r="DO12" s="45"/>
       <c r="DP12" s="5"/>
       <c r="DQ12" s="21"/>
       <c r="DR12" s="5"/>
-      <c r="DS12" s="168" t="s">
+      <c r="DS12" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="DT12" s="169"/>
-      <c r="DU12" s="169"/>
-      <c r="DV12" s="169"/>
-      <c r="DW12" s="169"/>
-      <c r="DX12" s="170"/>
+      <c r="DT12" s="50"/>
+      <c r="DU12" s="50"/>
+      <c r="DV12" s="50"/>
+      <c r="DW12" s="50"/>
+      <c r="DX12" s="51"/>
     </row>
     <row r="13" spans="1:128" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="94"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="141"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
@@ -8966,26 +10070,26 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="85"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="85"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="86"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="94"/>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="95"/>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
-      <c r="BB13" s="72"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="73"/>
-      <c r="BJ13" s="74"/>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="76"/>
+      <c r="BD13" s="76"/>
+      <c r="BE13" s="76"/>
+      <c r="BF13" s="76"/>
+      <c r="BG13" s="76"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="76"/>
+      <c r="BJ13" s="77"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
@@ -9004,8 +10108,8 @@
       <c r="CD13" s="37"/>
       <c r="CE13" s="35"/>
       <c r="CF13" s="36"/>
-      <c r="CQ13" s="59"/>
-      <c r="CR13" s="60"/>
+      <c r="CQ13" s="156"/>
+      <c r="CR13" s="157"/>
       <c r="CS13" s="5"/>
       <c r="CT13" s="5"/>
       <c r="CU13" s="5"/>
@@ -9019,72 +10123,72 @@
       <c r="DC13" s="5"/>
       <c r="DD13" s="5"/>
       <c r="DE13" s="5"/>
-      <c r="DF13" s="110"/>
-      <c r="DG13" s="111"/>
-      <c r="DH13" s="111"/>
-      <c r="DI13" s="111"/>
-      <c r="DJ13" s="111"/>
-      <c r="DK13" s="111"/>
-      <c r="DL13" s="111"/>
-      <c r="DM13" s="111"/>
-      <c r="DN13" s="111"/>
-      <c r="DO13" s="112"/>
+      <c r="DF13" s="46"/>
+      <c r="DG13" s="47"/>
+      <c r="DH13" s="47"/>
+      <c r="DI13" s="47"/>
+      <c r="DJ13" s="47"/>
+      <c r="DK13" s="47"/>
+      <c r="DL13" s="47"/>
+      <c r="DM13" s="47"/>
+      <c r="DN13" s="47"/>
+      <c r="DO13" s="48"/>
       <c r="DP13" s="5"/>
       <c r="DQ13" s="5"/>
       <c r="DR13" s="5"/>
-      <c r="DS13" s="171"/>
-      <c r="DT13" s="172"/>
-      <c r="DU13" s="172"/>
-      <c r="DV13" s="172"/>
-      <c r="DW13" s="172"/>
-      <c r="DX13" s="173"/>
+      <c r="DS13" s="52"/>
+      <c r="DT13" s="53"/>
+      <c r="DU13" s="53"/>
+      <c r="DV13" s="53"/>
+      <c r="DW13" s="53"/>
+      <c r="DX13" s="54"/>
     </row>
     <row r="14" spans="1:128" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="94"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="141"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="133" t="s">
+      <c r="AG14" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="134"/>
-      <c r="AJ14" s="134"/>
-      <c r="AK14" s="134"/>
-      <c r="AL14" s="134"/>
-      <c r="AM14" s="135"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="149"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="149"/>
+      <c r="AM14" s="150"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="81" t="s">
+      <c r="AQ14" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="83"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="92"/>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5"/>
       <c r="BA14" s="5"/>
@@ -9100,37 +10204,37 @@
       <c r="BK14" s="5"/>
       <c r="BL14" s="6"/>
       <c r="BM14" s="7"/>
-      <c r="BN14" s="75" t="s">
+      <c r="BN14" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="BO14" s="76"/>
-      <c r="BP14" s="76"/>
-      <c r="BQ14" s="76"/>
-      <c r="BR14" s="76"/>
-      <c r="BS14" s="76"/>
-      <c r="BT14" s="76"/>
-      <c r="BU14" s="76"/>
-      <c r="BV14" s="76"/>
-      <c r="BW14" s="77"/>
+      <c r="BO14" s="39"/>
+      <c r="BP14" s="39"/>
+      <c r="BQ14" s="39"/>
+      <c r="BR14" s="39"/>
+      <c r="BS14" s="39"/>
+      <c r="BT14" s="39"/>
+      <c r="BU14" s="39"/>
+      <c r="BV14" s="39"/>
+      <c r="BW14" s="161"/>
       <c r="BZ14" s="7"/>
       <c r="CC14" s="34"/>
       <c r="CD14" s="34"/>
       <c r="CE14" s="35"/>
       <c r="CF14" s="36"/>
-      <c r="CQ14" s="59"/>
-      <c r="CR14" s="60"/>
+      <c r="CQ14" s="156"/>
+      <c r="CR14" s="157"/>
       <c r="CS14" s="5"/>
       <c r="CT14" s="5"/>
-      <c r="CU14" s="63" t="s">
+      <c r="CU14" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="CV14" s="64"/>
-      <c r="CW14" s="64"/>
-      <c r="CX14" s="64"/>
-      <c r="CY14" s="64"/>
-      <c r="CZ14" s="64"/>
-      <c r="DA14" s="64"/>
-      <c r="DB14" s="65"/>
+      <c r="CV14" s="97"/>
+      <c r="CW14" s="97"/>
+      <c r="CX14" s="97"/>
+      <c r="CY14" s="97"/>
+      <c r="CZ14" s="97"/>
+      <c r="DA14" s="97"/>
+      <c r="DB14" s="98"/>
       <c r="DC14" s="5"/>
       <c r="DD14" s="5"/>
       <c r="DE14" s="5"/>
@@ -9179,23 +10283,23 @@
       <c r="V15" s="2"/>
       <c r="W15" s="29"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="137"/>
-      <c r="AI15" s="137"/>
-      <c r="AJ15" s="137"/>
-      <c r="AK15" s="137"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="138"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="152"/>
+      <c r="AI15" s="152"/>
+      <c r="AJ15" s="152"/>
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="152"/>
+      <c r="AM15" s="153"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="85"/>
-      <c r="AT15" s="85"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="86"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="94"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="95"/>
       <c r="AY15" s="5"/>
       <c r="AZ15" s="5"/>
       <c r="BA15" s="5"/>
@@ -9211,32 +10315,32 @@
       <c r="BK15" s="5"/>
       <c r="BL15" s="6"/>
       <c r="BM15" s="7"/>
-      <c r="BN15" s="78"/>
-      <c r="BO15" s="79"/>
-      <c r="BP15" s="79"/>
-      <c r="BQ15" s="79"/>
-      <c r="BR15" s="79"/>
-      <c r="BS15" s="79"/>
-      <c r="BT15" s="79"/>
-      <c r="BU15" s="79"/>
-      <c r="BV15" s="79"/>
-      <c r="BW15" s="80"/>
+      <c r="BN15" s="162"/>
+      <c r="BO15" s="41"/>
+      <c r="BP15" s="41"/>
+      <c r="BQ15" s="41"/>
+      <c r="BR15" s="41"/>
+      <c r="BS15" s="41"/>
+      <c r="BT15" s="41"/>
+      <c r="BU15" s="41"/>
+      <c r="BV15" s="41"/>
+      <c r="BW15" s="163"/>
       <c r="CC15" s="34"/>
       <c r="CD15" s="34"/>
       <c r="CE15" s="34"/>
       <c r="CF15" s="34"/>
-      <c r="CQ15" s="61"/>
-      <c r="CR15" s="62"/>
+      <c r="CQ15" s="158"/>
+      <c r="CR15" s="159"/>
       <c r="CS15" s="5"/>
       <c r="CT15" s="5"/>
-      <c r="CU15" s="66"/>
-      <c r="CV15" s="67"/>
-      <c r="CW15" s="67"/>
-      <c r="CX15" s="67"/>
-      <c r="CY15" s="67"/>
-      <c r="CZ15" s="67"/>
-      <c r="DA15" s="67"/>
-      <c r="DB15" s="68"/>
+      <c r="CU15" s="99"/>
+      <c r="CV15" s="100"/>
+      <c r="CW15" s="100"/>
+      <c r="CX15" s="100"/>
+      <c r="CY15" s="100"/>
+      <c r="CZ15" s="100"/>
+      <c r="DA15" s="100"/>
+      <c r="DB15" s="101"/>
       <c r="DC15" s="5"/>
       <c r="DD15" s="5"/>
       <c r="DE15" s="5"/>
@@ -9289,47 +10393,47 @@
       <c r="AH16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="81" t="s">
+      <c r="AQ16" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="83"/>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="92"/>
       <c r="AY16" s="5"/>
       <c r="AZ16" s="5"/>
       <c r="BA16" s="5"/>
-      <c r="BB16" s="107" t="s">
+      <c r="BB16" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="BC16" s="108"/>
-      <c r="BD16" s="108"/>
-      <c r="BE16" s="108"/>
-      <c r="BF16" s="108"/>
-      <c r="BG16" s="108"/>
-      <c r="BH16" s="108"/>
-      <c r="BI16" s="108"/>
-      <c r="BJ16" s="109"/>
+      <c r="BC16" s="44"/>
+      <c r="BD16" s="44"/>
+      <c r="BE16" s="44"/>
+      <c r="BF16" s="44"/>
+      <c r="BG16" s="44"/>
+      <c r="BH16" s="44"/>
+      <c r="BI16" s="44"/>
+      <c r="BJ16" s="45"/>
       <c r="BK16" s="5"/>
       <c r="BL16" s="6"/>
       <c r="BM16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BN16" s="69" t="s">
+      <c r="BN16" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="BO16" s="70"/>
-      <c r="BP16" s="70"/>
-      <c r="BQ16" s="70"/>
-      <c r="BR16" s="70"/>
-      <c r="BS16" s="70"/>
-      <c r="BT16" s="70"/>
-      <c r="BU16" s="70"/>
-      <c r="BV16" s="70"/>
-      <c r="BW16" s="71"/>
+      <c r="BO16" s="73"/>
+      <c r="BP16" s="73"/>
+      <c r="BQ16" s="73"/>
+      <c r="BR16" s="73"/>
+      <c r="BS16" s="73"/>
+      <c r="BT16" s="73"/>
+      <c r="BU16" s="73"/>
+      <c r="BV16" s="73"/>
+      <c r="BW16" s="74"/>
       <c r="CQ16" s="2"/>
       <c r="CS16" s="5"/>
       <c r="CT16" s="5"/>
@@ -9344,29 +10448,29 @@
       <c r="DC16" s="5"/>
       <c r="DD16" s="5"/>
       <c r="DE16" s="5"/>
-      <c r="DF16" s="107" t="s">
+      <c r="DF16" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="DG16" s="108"/>
-      <c r="DH16" s="108"/>
-      <c r="DI16" s="108"/>
-      <c r="DJ16" s="108"/>
-      <c r="DK16" s="108"/>
-      <c r="DL16" s="108"/>
-      <c r="DM16" s="108"/>
-      <c r="DN16" s="108"/>
-      <c r="DO16" s="109"/>
+      <c r="DG16" s="44"/>
+      <c r="DH16" s="44"/>
+      <c r="DI16" s="44"/>
+      <c r="DJ16" s="44"/>
+      <c r="DK16" s="44"/>
+      <c r="DL16" s="44"/>
+      <c r="DM16" s="44"/>
+      <c r="DN16" s="44"/>
+      <c r="DO16" s="45"/>
       <c r="DP16" s="5"/>
       <c r="DQ16" s="22"/>
       <c r="DR16" s="20"/>
-      <c r="DS16" s="76" t="s">
+      <c r="DS16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="DT16" s="76"/>
-      <c r="DU16" s="76"/>
-      <c r="DV16" s="76"/>
-      <c r="DW16" s="76"/>
-      <c r="DX16" s="166"/>
+      <c r="DT16" s="39"/>
+      <c r="DU16" s="39"/>
+      <c r="DV16" s="39"/>
+      <c r="DW16" s="39"/>
+      <c r="DX16" s="40"/>
     </row>
     <row r="17" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -9396,63 +10500,63 @@
       <c r="AH17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="85"/>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="85"/>
-      <c r="AU17" s="85"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="86"/>
+      <c r="AQ17" s="93"/>
+      <c r="AR17" s="94"/>
+      <c r="AS17" s="94"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="95"/>
       <c r="AY17" s="5"/>
       <c r="AZ17" s="5"/>
       <c r="BA17" s="5"/>
-      <c r="BB17" s="110"/>
-      <c r="BC17" s="111"/>
-      <c r="BD17" s="111"/>
-      <c r="BE17" s="111"/>
-      <c r="BF17" s="111"/>
-      <c r="BG17" s="111"/>
-      <c r="BH17" s="111"/>
-      <c r="BI17" s="111"/>
-      <c r="BJ17" s="112"/>
+      <c r="BB17" s="46"/>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="47"/>
+      <c r="BE17" s="47"/>
+      <c r="BF17" s="47"/>
+      <c r="BG17" s="47"/>
+      <c r="BH17" s="47"/>
+      <c r="BI17" s="47"/>
+      <c r="BJ17" s="48"/>
       <c r="BK17" s="5"/>
       <c r="BL17" s="6"/>
       <c r="BM17" s="23"/>
-      <c r="BN17" s="72"/>
-      <c r="BO17" s="73"/>
-      <c r="BP17" s="73"/>
-      <c r="BQ17" s="73"/>
-      <c r="BR17" s="73"/>
-      <c r="BS17" s="73"/>
-      <c r="BT17" s="73"/>
-      <c r="BU17" s="73"/>
-      <c r="BV17" s="73"/>
-      <c r="BW17" s="74"/>
+      <c r="BN17" s="75"/>
+      <c r="BO17" s="76"/>
+      <c r="BP17" s="76"/>
+      <c r="BQ17" s="76"/>
+      <c r="BR17" s="76"/>
+      <c r="BS17" s="76"/>
+      <c r="BT17" s="76"/>
+      <c r="BU17" s="76"/>
+      <c r="BV17" s="76"/>
+      <c r="BW17" s="77"/>
       <c r="CS17" s="5"/>
       <c r="CT17" s="5"/>
       <c r="DC17" s="5"/>
       <c r="DD17" s="5"/>
       <c r="DE17" s="5"/>
-      <c r="DF17" s="151"/>
-      <c r="DG17" s="152"/>
-      <c r="DH17" s="152"/>
-      <c r="DI17" s="152"/>
-      <c r="DJ17" s="152"/>
-      <c r="DK17" s="152"/>
-      <c r="DL17" s="152"/>
-      <c r="DM17" s="152"/>
-      <c r="DN17" s="152"/>
-      <c r="DO17" s="153"/>
+      <c r="DF17" s="69"/>
+      <c r="DG17" s="70"/>
+      <c r="DH17" s="70"/>
+      <c r="DI17" s="70"/>
+      <c r="DJ17" s="70"/>
+      <c r="DK17" s="70"/>
+      <c r="DL17" s="70"/>
+      <c r="DM17" s="70"/>
+      <c r="DN17" s="70"/>
+      <c r="DO17" s="71"/>
       <c r="DP17" s="5"/>
       <c r="DQ17" s="6"/>
       <c r="DR17" s="20"/>
-      <c r="DS17" s="79"/>
-      <c r="DT17" s="79"/>
-      <c r="DU17" s="79"/>
-      <c r="DV17" s="79"/>
-      <c r="DW17" s="79"/>
-      <c r="DX17" s="167"/>
+      <c r="DS17" s="41"/>
+      <c r="DT17" s="41"/>
+      <c r="DU17" s="41"/>
+      <c r="DV17" s="41"/>
+      <c r="DW17" s="41"/>
+      <c r="DX17" s="42"/>
     </row>
     <row r="18" spans="2:128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
@@ -9480,10 +10584,10 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
-      <c r="AL18" s="160" t="s">
+      <c r="AL18" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="AM18" s="161"/>
+      <c r="AM18" s="85"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
@@ -9497,34 +10601,34 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="5"/>
       <c r="BA18" s="5"/>
-      <c r="BB18" s="69" t="s">
+      <c r="BB18" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="70"/>
-      <c r="BG18" s="70"/>
-      <c r="BH18" s="70"/>
-      <c r="BI18" s="70"/>
-      <c r="BJ18" s="71"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="73"/>
+      <c r="BJ18" s="74"/>
       <c r="BK18" s="5"/>
       <c r="BL18" s="6"/>
       <c r="BM18" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BN18" s="69" t="s">
+      <c r="BN18" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="BO18" s="70"/>
-      <c r="BP18" s="70"/>
-      <c r="BQ18" s="70"/>
-      <c r="BR18" s="70"/>
-      <c r="BS18" s="70"/>
-      <c r="BT18" s="70"/>
-      <c r="BU18" s="70"/>
-      <c r="BV18" s="70"/>
-      <c r="BW18" s="71"/>
+      <c r="BO18" s="73"/>
+      <c r="BP18" s="73"/>
+      <c r="BQ18" s="73"/>
+      <c r="BR18" s="73"/>
+      <c r="BS18" s="73"/>
+      <c r="BT18" s="73"/>
+      <c r="BU18" s="73"/>
+      <c r="BV18" s="73"/>
+      <c r="BW18" s="74"/>
       <c r="CI18" s="2"/>
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
@@ -9537,16 +10641,16 @@
       <c r="CR18" s="2"/>
       <c r="CS18" s="6"/>
       <c r="CT18" s="6"/>
-      <c r="CU18" s="51" t="s">
+      <c r="CU18" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="CV18" s="52"/>
-      <c r="CW18" s="52"/>
-      <c r="CX18" s="52"/>
-      <c r="CY18" s="52"/>
-      <c r="CZ18" s="52"/>
-      <c r="DA18" s="52"/>
-      <c r="DB18" s="53"/>
+      <c r="CV18" s="79"/>
+      <c r="CW18" s="79"/>
+      <c r="CX18" s="79"/>
+      <c r="CY18" s="79"/>
+      <c r="CZ18" s="79"/>
+      <c r="DA18" s="79"/>
+      <c r="DB18" s="80"/>
       <c r="DC18" s="6"/>
       <c r="DD18" s="6"/>
       <c r="DE18" s="6"/>
@@ -9596,8 +10700,8 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AL19" s="162"/>
-      <c r="AM19" s="163"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="87"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
@@ -9611,28 +10715,28 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="5"/>
       <c r="BA19" s="5"/>
-      <c r="BB19" s="72"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="73"/>
-      <c r="BH19" s="73"/>
-      <c r="BI19" s="73"/>
-      <c r="BJ19" s="74"/>
+      <c r="BB19" s="75"/>
+      <c r="BC19" s="76"/>
+      <c r="BD19" s="76"/>
+      <c r="BE19" s="76"/>
+      <c r="BF19" s="76"/>
+      <c r="BG19" s="76"/>
+      <c r="BH19" s="76"/>
+      <c r="BI19" s="76"/>
+      <c r="BJ19" s="77"/>
       <c r="BK19" s="5"/>
       <c r="BL19" s="6"/>
       <c r="BM19" s="23"/>
-      <c r="BN19" s="72"/>
-      <c r="BO19" s="73"/>
-      <c r="BP19" s="73"/>
-      <c r="BQ19" s="73"/>
-      <c r="BR19" s="73"/>
-      <c r="BS19" s="73"/>
-      <c r="BT19" s="73"/>
-      <c r="BU19" s="73"/>
-      <c r="BV19" s="73"/>
-      <c r="BW19" s="74"/>
+      <c r="BN19" s="75"/>
+      <c r="BO19" s="76"/>
+      <c r="BP19" s="76"/>
+      <c r="BQ19" s="76"/>
+      <c r="BR19" s="76"/>
+      <c r="BS19" s="76"/>
+      <c r="BT19" s="76"/>
+      <c r="BU19" s="76"/>
+      <c r="BV19" s="76"/>
+      <c r="BW19" s="77"/>
       <c r="CI19" s="2"/>
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
@@ -9645,14 +10749,14 @@
       <c r="CR19" s="2"/>
       <c r="CS19" s="6"/>
       <c r="CT19" s="6"/>
-      <c r="CU19" s="54"/>
-      <c r="CV19" s="55"/>
-      <c r="CW19" s="55"/>
-      <c r="CX19" s="55"/>
-      <c r="CY19" s="55"/>
-      <c r="CZ19" s="55"/>
-      <c r="DA19" s="55"/>
-      <c r="DB19" s="56"/>
+      <c r="CU19" s="81"/>
+      <c r="CV19" s="82"/>
+      <c r="CW19" s="82"/>
+      <c r="CX19" s="82"/>
+      <c r="CY19" s="82"/>
+      <c r="CZ19" s="82"/>
+      <c r="DA19" s="82"/>
+      <c r="DB19" s="83"/>
       <c r="DC19" s="6"/>
       <c r="DD19" s="6"/>
       <c r="DE19" s="6"/>
@@ -9702,51 +10806,51 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-      <c r="AL20" s="162"/>
-      <c r="AM20" s="163"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="87"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="63" t="s">
+      <c r="AQ20" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="64"/>
-      <c r="AU20" s="64"/>
-      <c r="AV20" s="64"/>
-      <c r="AW20" s="64"/>
-      <c r="AX20" s="65"/>
+      <c r="AR20" s="97"/>
+      <c r="AS20" s="97"/>
+      <c r="AT20" s="97"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="97"/>
+      <c r="AW20" s="97"/>
+      <c r="AX20" s="98"/>
       <c r="AY20" s="5"/>
       <c r="AZ20" s="5"/>
       <c r="BA20" s="5"/>
-      <c r="BB20" s="69" t="s">
+      <c r="BB20" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="BC20" s="70"/>
-      <c r="BD20" s="70"/>
-      <c r="BE20" s="70"/>
-      <c r="BF20" s="70"/>
-      <c r="BG20" s="70"/>
-      <c r="BH20" s="70"/>
-      <c r="BI20" s="70"/>
-      <c r="BJ20" s="71"/>
+      <c r="BC20" s="73"/>
+      <c r="BD20" s="73"/>
+      <c r="BE20" s="73"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="73"/>
+      <c r="BJ20" s="74"/>
       <c r="BK20" s="5"/>
       <c r="BL20" s="6"/>
       <c r="BM20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="BN20" s="69" t="s">
+      <c r="BN20" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="BO20" s="70"/>
-      <c r="BP20" s="70"/>
-      <c r="BQ20" s="70"/>
-      <c r="BR20" s="70"/>
-      <c r="BS20" s="70"/>
-      <c r="BT20" s="70"/>
-      <c r="BU20" s="70"/>
-      <c r="BV20" s="70"/>
-      <c r="BW20" s="71"/>
+      <c r="BO20" s="73"/>
+      <c r="BP20" s="73"/>
+      <c r="BQ20" s="73"/>
+      <c r="BR20" s="73"/>
+      <c r="BS20" s="73"/>
+      <c r="BT20" s="73"/>
+      <c r="BU20" s="73"/>
+      <c r="BV20" s="73"/>
+      <c r="BW20" s="74"/>
       <c r="CF20" s="16"/>
       <c r="CG20" s="16"/>
       <c r="CH20" s="16"/>
@@ -9819,43 +10923,43 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AL21" s="162"/>
-      <c r="AM21" s="163"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="87"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="67"/>
-      <c r="AS21" s="67"/>
-      <c r="AT21" s="67"/>
-      <c r="AU21" s="67"/>
-      <c r="AV21" s="67"/>
-      <c r="AW21" s="67"/>
-      <c r="AX21" s="68"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="100"/>
+      <c r="AS21" s="100"/>
+      <c r="AT21" s="100"/>
+      <c r="AU21" s="100"/>
+      <c r="AV21" s="100"/>
+      <c r="AW21" s="100"/>
+      <c r="AX21" s="101"/>
       <c r="AY21" s="5"/>
       <c r="AZ21" s="5"/>
       <c r="BA21" s="5"/>
-      <c r="BB21" s="72"/>
-      <c r="BC21" s="73"/>
-      <c r="BD21" s="73"/>
-      <c r="BE21" s="73"/>
-      <c r="BF21" s="73"/>
-      <c r="BG21" s="73"/>
-      <c r="BH21" s="73"/>
-      <c r="BI21" s="73"/>
-      <c r="BJ21" s="74"/>
+      <c r="BB21" s="75"/>
+      <c r="BC21" s="76"/>
+      <c r="BD21" s="76"/>
+      <c r="BE21" s="76"/>
+      <c r="BF21" s="76"/>
+      <c r="BG21" s="76"/>
+      <c r="BH21" s="76"/>
+      <c r="BI21" s="76"/>
+      <c r="BJ21" s="77"/>
       <c r="BK21" s="5"/>
       <c r="BL21" s="6"/>
       <c r="BM21" s="23"/>
-      <c r="BN21" s="72"/>
-      <c r="BO21" s="73"/>
-      <c r="BP21" s="73"/>
-      <c r="BQ21" s="73"/>
-      <c r="BR21" s="73"/>
-      <c r="BS21" s="73"/>
-      <c r="BT21" s="73"/>
-      <c r="BU21" s="73"/>
-      <c r="BV21" s="73"/>
-      <c r="BW21" s="74"/>
+      <c r="BN21" s="75"/>
+      <c r="BO21" s="76"/>
+      <c r="BP21" s="76"/>
+      <c r="BQ21" s="76"/>
+      <c r="BR21" s="76"/>
+      <c r="BS21" s="76"/>
+      <c r="BT21" s="76"/>
+      <c r="BU21" s="76"/>
+      <c r="BV21" s="76"/>
+      <c r="BW21" s="77"/>
       <c r="CJ21" s="6"/>
       <c r="CK21" s="6"/>
       <c r="CL21" s="6"/>
@@ -9924,20 +11028,20 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AL22" s="162"/>
-      <c r="AM22" s="163"/>
+      <c r="AL22" s="86"/>
+      <c r="AM22" s="87"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="81" t="s">
+      <c r="AQ22" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="82"/>
-      <c r="AU22" s="82"/>
-      <c r="AV22" s="82"/>
-      <c r="AW22" s="82"/>
-      <c r="AX22" s="83"/>
+      <c r="AR22" s="91"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="91"/>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="92"/>
       <c r="AY22" s="5"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="5"/>
@@ -10021,18 +11125,18 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-      <c r="AL23" s="162"/>
-      <c r="AM23" s="163"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="87"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="84"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="85"/>
-      <c r="AT23" s="85"/>
-      <c r="AU23" s="85"/>
-      <c r="AV23" s="85"/>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="86"/>
+      <c r="AQ23" s="93"/>
+      <c r="AR23" s="94"/>
+      <c r="AS23" s="94"/>
+      <c r="AT23" s="94"/>
+      <c r="AU23" s="94"/>
+      <c r="AV23" s="94"/>
+      <c r="AW23" s="94"/>
+      <c r="AX23" s="95"/>
       <c r="AY23" s="5"/>
       <c r="AZ23" s="5"/>
       <c r="BA23" s="5"/>
@@ -10130,49 +11234,49 @@
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
-      <c r="AL24" s="162"/>
-      <c r="AM24" s="163"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="87"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="81" t="s">
+      <c r="AQ24" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="82"/>
-      <c r="AV24" s="82"/>
-      <c r="AW24" s="82"/>
-      <c r="AX24" s="83"/>
+      <c r="AR24" s="91"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="91"/>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="92"/>
       <c r="AY24" s="5"/>
       <c r="AZ24" s="5"/>
       <c r="BA24" s="5"/>
-      <c r="BB24" s="107" t="s">
+      <c r="BB24" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="BC24" s="108"/>
-      <c r="BD24" s="108"/>
-      <c r="BE24" s="108"/>
-      <c r="BF24" s="108"/>
-      <c r="BG24" s="108"/>
-      <c r="BH24" s="108"/>
-      <c r="BI24" s="108"/>
-      <c r="BJ24" s="109"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="45"/>
       <c r="BK24" s="5"/>
       <c r="BL24" s="6"/>
       <c r="BM24" s="23"/>
-      <c r="BN24" s="75" t="s">
+      <c r="BN24" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="BO24" s="76"/>
-      <c r="BP24" s="76"/>
-      <c r="BQ24" s="76"/>
-      <c r="BR24" s="76"/>
-      <c r="BS24" s="76"/>
-      <c r="BT24" s="76"/>
-      <c r="BU24" s="76"/>
-      <c r="BV24" s="76"/>
-      <c r="BW24" s="77"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="161"/>
     </row>
     <row r="25" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
@@ -10200,43 +11304,43 @@
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AL25" s="162"/>
-      <c r="AM25" s="163"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="87"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="85"/>
-      <c r="AS25" s="85"/>
-      <c r="AT25" s="85"/>
-      <c r="AU25" s="85"/>
-      <c r="AV25" s="85"/>
-      <c r="AW25" s="85"/>
-      <c r="AX25" s="86"/>
+      <c r="AQ25" s="93"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
+      <c r="AU25" s="94"/>
+      <c r="AV25" s="94"/>
+      <c r="AW25" s="94"/>
+      <c r="AX25" s="95"/>
       <c r="AY25" s="5"/>
       <c r="AZ25" s="5"/>
       <c r="BA25" s="5"/>
-      <c r="BB25" s="110"/>
-      <c r="BC25" s="111"/>
-      <c r="BD25" s="111"/>
-      <c r="BE25" s="111"/>
-      <c r="BF25" s="111"/>
-      <c r="BG25" s="111"/>
-      <c r="BH25" s="111"/>
-      <c r="BI25" s="111"/>
-      <c r="BJ25" s="112"/>
+      <c r="BB25" s="46"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="48"/>
       <c r="BK25" s="5"/>
       <c r="BL25" s="6"/>
       <c r="BM25" s="23"/>
-      <c r="BN25" s="78"/>
-      <c r="BO25" s="79"/>
-      <c r="BP25" s="79"/>
-      <c r="BQ25" s="79"/>
-      <c r="BR25" s="79"/>
-      <c r="BS25" s="79"/>
-      <c r="BT25" s="79"/>
-      <c r="BU25" s="79"/>
-      <c r="BV25" s="79"/>
-      <c r="BW25" s="80"/>
+      <c r="BN25" s="162"/>
+      <c r="BO25" s="41"/>
+      <c r="BP25" s="41"/>
+      <c r="BQ25" s="41"/>
+      <c r="BR25" s="41"/>
+      <c r="BS25" s="41"/>
+      <c r="BT25" s="41"/>
+      <c r="BU25" s="41"/>
+      <c r="BV25" s="41"/>
+      <c r="BW25" s="163"/>
     </row>
     <row r="26" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -10264,51 +11368,51 @@
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
-      <c r="AL26" s="162"/>
-      <c r="AM26" s="163"/>
+      <c r="AL26" s="86"/>
+      <c r="AM26" s="87"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="81" t="s">
+      <c r="AQ26" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AR26" s="82"/>
-      <c r="AS26" s="82"/>
-      <c r="AT26" s="82"/>
-      <c r="AU26" s="82"/>
-      <c r="AV26" s="82"/>
-      <c r="AW26" s="82"/>
-      <c r="AX26" s="83"/>
+      <c r="AR26" s="91"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="92"/>
       <c r="AY26" s="5"/>
       <c r="AZ26" s="5"/>
       <c r="BA26" s="5"/>
-      <c r="BB26" s="69" t="s">
+      <c r="BB26" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="BC26" s="70"/>
-      <c r="BD26" s="70"/>
-      <c r="BE26" s="70"/>
-      <c r="BF26" s="70"/>
-      <c r="BG26" s="70"/>
-      <c r="BH26" s="70"/>
-      <c r="BI26" s="70"/>
-      <c r="BJ26" s="71"/>
+      <c r="BC26" s="73"/>
+      <c r="BD26" s="73"/>
+      <c r="BE26" s="73"/>
+      <c r="BF26" s="73"/>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="74"/>
       <c r="BK26" s="5"/>
       <c r="BL26" s="6"/>
       <c r="BM26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BN26" s="69" t="s">
+      <c r="BN26" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="BO26" s="70"/>
-      <c r="BP26" s="70"/>
-      <c r="BQ26" s="70"/>
-      <c r="BR26" s="70"/>
-      <c r="BS26" s="70"/>
-      <c r="BT26" s="70"/>
-      <c r="BU26" s="70"/>
-      <c r="BV26" s="70"/>
-      <c r="BW26" s="71"/>
+      <c r="BO26" s="73"/>
+      <c r="BP26" s="73"/>
+      <c r="BQ26" s="73"/>
+      <c r="BR26" s="73"/>
+      <c r="BS26" s="73"/>
+      <c r="BT26" s="73"/>
+      <c r="BU26" s="73"/>
+      <c r="BV26" s="73"/>
+      <c r="BW26" s="74"/>
     </row>
     <row r="27" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
@@ -10336,43 +11440,43 @@
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
-      <c r="AL27" s="162"/>
-      <c r="AM27" s="163"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="87"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="84"/>
-      <c r="AR27" s="85"/>
-      <c r="AS27" s="85"/>
-      <c r="AT27" s="85"/>
-      <c r="AU27" s="85"/>
-      <c r="AV27" s="85"/>
-      <c r="AW27" s="85"/>
-      <c r="AX27" s="86"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="95"/>
       <c r="AY27" s="5"/>
       <c r="AZ27" s="5"/>
       <c r="BA27" s="5"/>
-      <c r="BB27" s="72"/>
-      <c r="BC27" s="73"/>
-      <c r="BD27" s="73"/>
-      <c r="BE27" s="73"/>
-      <c r="BF27" s="73"/>
-      <c r="BG27" s="73"/>
-      <c r="BH27" s="73"/>
-      <c r="BI27" s="73"/>
-      <c r="BJ27" s="74"/>
+      <c r="BB27" s="75"/>
+      <c r="BC27" s="76"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="76"/>
+      <c r="BF27" s="76"/>
+      <c r="BG27" s="76"/>
+      <c r="BH27" s="76"/>
+      <c r="BI27" s="76"/>
+      <c r="BJ27" s="77"/>
       <c r="BK27" s="5"/>
       <c r="BL27" s="6"/>
       <c r="BM27" s="23"/>
-      <c r="BN27" s="72"/>
-      <c r="BO27" s="73"/>
-      <c r="BP27" s="73"/>
-      <c r="BQ27" s="73"/>
-      <c r="BR27" s="73"/>
-      <c r="BS27" s="73"/>
-      <c r="BT27" s="73"/>
-      <c r="BU27" s="73"/>
-      <c r="BV27" s="73"/>
-      <c r="BW27" s="74"/>
+      <c r="BN27" s="75"/>
+      <c r="BO27" s="76"/>
+      <c r="BP27" s="76"/>
+      <c r="BQ27" s="76"/>
+      <c r="BR27" s="76"/>
+      <c r="BS27" s="76"/>
+      <c r="BT27" s="76"/>
+      <c r="BU27" s="76"/>
+      <c r="BV27" s="76"/>
+      <c r="BW27" s="77"/>
     </row>
     <row r="28" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
@@ -10400,51 +11504,51 @@
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
-      <c r="AL28" s="162"/>
-      <c r="AM28" s="163"/>
+      <c r="AL28" s="86"/>
+      <c r="AM28" s="87"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="81" t="s">
+      <c r="AQ28" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AR28" s="82"/>
-      <c r="AS28" s="82"/>
-      <c r="AT28" s="82"/>
-      <c r="AU28" s="82"/>
-      <c r="AV28" s="82"/>
-      <c r="AW28" s="82"/>
-      <c r="AX28" s="83"/>
+      <c r="AR28" s="91"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="92"/>
       <c r="AY28" s="5"/>
       <c r="AZ28" s="5"/>
       <c r="BA28" s="5"/>
-      <c r="BB28" s="69" t="s">
+      <c r="BB28" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="BC28" s="70"/>
-      <c r="BD28" s="70"/>
-      <c r="BE28" s="70"/>
-      <c r="BF28" s="70"/>
-      <c r="BG28" s="70"/>
-      <c r="BH28" s="70"/>
-      <c r="BI28" s="70"/>
-      <c r="BJ28" s="71"/>
+      <c r="BC28" s="73"/>
+      <c r="BD28" s="73"/>
+      <c r="BE28" s="73"/>
+      <c r="BF28" s="73"/>
+      <c r="BG28" s="73"/>
+      <c r="BH28" s="73"/>
+      <c r="BI28" s="73"/>
+      <c r="BJ28" s="74"/>
       <c r="BK28" s="5"/>
       <c r="BL28" s="6"/>
       <c r="BM28" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BN28" s="69" t="s">
+      <c r="BN28" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="BO28" s="70"/>
-      <c r="BP28" s="70"/>
-      <c r="BQ28" s="70"/>
-      <c r="BR28" s="70"/>
-      <c r="BS28" s="70"/>
-      <c r="BT28" s="70"/>
-      <c r="BU28" s="70"/>
-      <c r="BV28" s="70"/>
-      <c r="BW28" s="71"/>
+      <c r="BO28" s="73"/>
+      <c r="BP28" s="73"/>
+      <c r="BQ28" s="73"/>
+      <c r="BR28" s="73"/>
+      <c r="BS28" s="73"/>
+      <c r="BT28" s="73"/>
+      <c r="BU28" s="73"/>
+      <c r="BV28" s="73"/>
+      <c r="BW28" s="74"/>
     </row>
     <row r="29" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
@@ -10472,43 +11576,43 @@
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
-      <c r="AL29" s="162"/>
-      <c r="AM29" s="163"/>
+      <c r="AL29" s="86"/>
+      <c r="AM29" s="87"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="84"/>
-      <c r="AR29" s="85"/>
-      <c r="AS29" s="85"/>
-      <c r="AT29" s="85"/>
-      <c r="AU29" s="85"/>
-      <c r="AV29" s="85"/>
-      <c r="AW29" s="85"/>
-      <c r="AX29" s="86"/>
+      <c r="AQ29" s="93"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="95"/>
       <c r="AY29" s="5"/>
       <c r="AZ29" s="5"/>
       <c r="BA29" s="5"/>
-      <c r="BB29" s="72"/>
-      <c r="BC29" s="73"/>
-      <c r="BD29" s="73"/>
-      <c r="BE29" s="73"/>
-      <c r="BF29" s="73"/>
-      <c r="BG29" s="73"/>
-      <c r="BH29" s="73"/>
-      <c r="BI29" s="73"/>
-      <c r="BJ29" s="74"/>
+      <c r="BB29" s="75"/>
+      <c r="BC29" s="76"/>
+      <c r="BD29" s="76"/>
+      <c r="BE29" s="76"/>
+      <c r="BF29" s="76"/>
+      <c r="BG29" s="76"/>
+      <c r="BH29" s="76"/>
+      <c r="BI29" s="76"/>
+      <c r="BJ29" s="77"/>
       <c r="BK29" s="5"/>
       <c r="BL29" s="6"/>
       <c r="BM29" s="23"/>
-      <c r="BN29" s="72"/>
-      <c r="BO29" s="73"/>
-      <c r="BP29" s="73"/>
-      <c r="BQ29" s="73"/>
-      <c r="BR29" s="73"/>
-      <c r="BS29" s="73"/>
-      <c r="BT29" s="73"/>
-      <c r="BU29" s="73"/>
-      <c r="BV29" s="73"/>
-      <c r="BW29" s="74"/>
+      <c r="BN29" s="75"/>
+      <c r="BO29" s="76"/>
+      <c r="BP29" s="76"/>
+      <c r="BQ29" s="76"/>
+      <c r="BR29" s="76"/>
+      <c r="BS29" s="76"/>
+      <c r="BT29" s="76"/>
+      <c r="BU29" s="76"/>
+      <c r="BV29" s="76"/>
+      <c r="BW29" s="77"/>
     </row>
     <row r="30" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -10536,51 +11640,51 @@
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
-      <c r="AL30" s="162"/>
-      <c r="AM30" s="163"/>
+      <c r="AL30" s="86"/>
+      <c r="AM30" s="87"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="81" t="s">
+      <c r="AQ30" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AR30" s="82"/>
-      <c r="AS30" s="82"/>
-      <c r="AT30" s="82"/>
-      <c r="AU30" s="82"/>
-      <c r="AV30" s="82"/>
-      <c r="AW30" s="82"/>
-      <c r="AX30" s="83"/>
+      <c r="AR30" s="91"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="92"/>
       <c r="AY30" s="5"/>
       <c r="AZ30" s="5"/>
       <c r="BA30" s="5"/>
-      <c r="BB30" s="69" t="s">
+      <c r="BB30" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="BC30" s="70"/>
-      <c r="BD30" s="70"/>
-      <c r="BE30" s="70"/>
-      <c r="BF30" s="70"/>
-      <c r="BG30" s="70"/>
-      <c r="BH30" s="70"/>
-      <c r="BI30" s="70"/>
-      <c r="BJ30" s="71"/>
+      <c r="BC30" s="73"/>
+      <c r="BD30" s="73"/>
+      <c r="BE30" s="73"/>
+      <c r="BF30" s="73"/>
+      <c r="BG30" s="73"/>
+      <c r="BH30" s="73"/>
+      <c r="BI30" s="73"/>
+      <c r="BJ30" s="74"/>
       <c r="BK30" s="5"/>
       <c r="BL30" s="6"/>
       <c r="BM30" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BN30" s="69" t="s">
+      <c r="BN30" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="BO30" s="70"/>
-      <c r="BP30" s="70"/>
-      <c r="BQ30" s="70"/>
-      <c r="BR30" s="70"/>
-      <c r="BS30" s="70"/>
-      <c r="BT30" s="70"/>
-      <c r="BU30" s="70"/>
-      <c r="BV30" s="70"/>
-      <c r="BW30" s="71"/>
+      <c r="BO30" s="73"/>
+      <c r="BP30" s="73"/>
+      <c r="BQ30" s="73"/>
+      <c r="BR30" s="73"/>
+      <c r="BS30" s="73"/>
+      <c r="BT30" s="73"/>
+      <c r="BU30" s="73"/>
+      <c r="BV30" s="73"/>
+      <c r="BW30" s="74"/>
     </row>
     <row r="31" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
@@ -10608,43 +11712,43 @@
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
-      <c r="AL31" s="164"/>
-      <c r="AM31" s="165"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="89"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="84"/>
-      <c r="AR31" s="85"/>
-      <c r="AS31" s="85"/>
-      <c r="AT31" s="85"/>
-      <c r="AU31" s="85"/>
-      <c r="AV31" s="85"/>
-      <c r="AW31" s="85"/>
-      <c r="AX31" s="86"/>
+      <c r="AQ31" s="93"/>
+      <c r="AR31" s="94"/>
+      <c r="AS31" s="94"/>
+      <c r="AT31" s="94"/>
+      <c r="AU31" s="94"/>
+      <c r="AV31" s="94"/>
+      <c r="AW31" s="94"/>
+      <c r="AX31" s="95"/>
       <c r="AY31" s="5"/>
       <c r="AZ31" s="5"/>
       <c r="BA31" s="5"/>
-      <c r="BB31" s="72"/>
-      <c r="BC31" s="73"/>
-      <c r="BD31" s="73"/>
-      <c r="BE31" s="73"/>
-      <c r="BF31" s="73"/>
-      <c r="BG31" s="73"/>
-      <c r="BH31" s="73"/>
-      <c r="BI31" s="73"/>
-      <c r="BJ31" s="74"/>
+      <c r="BB31" s="75"/>
+      <c r="BC31" s="76"/>
+      <c r="BD31" s="76"/>
+      <c r="BE31" s="76"/>
+      <c r="BF31" s="76"/>
+      <c r="BG31" s="76"/>
+      <c r="BH31" s="76"/>
+      <c r="BI31" s="76"/>
+      <c r="BJ31" s="77"/>
       <c r="BK31" s="5"/>
       <c r="BL31" s="6"/>
       <c r="BM31" s="23"/>
-      <c r="BN31" s="72"/>
-      <c r="BO31" s="73"/>
-      <c r="BP31" s="73"/>
-      <c r="BQ31" s="73"/>
-      <c r="BR31" s="73"/>
-      <c r="BS31" s="73"/>
-      <c r="BT31" s="73"/>
-      <c r="BU31" s="73"/>
-      <c r="BV31" s="73"/>
-      <c r="BW31" s="74"/>
+      <c r="BN31" s="75"/>
+      <c r="BO31" s="76"/>
+      <c r="BP31" s="76"/>
+      <c r="BQ31" s="76"/>
+      <c r="BR31" s="76"/>
+      <c r="BS31" s="76"/>
+      <c r="BT31" s="76"/>
+      <c r="BU31" s="76"/>
+      <c r="BV31" s="76"/>
+      <c r="BW31" s="77"/>
     </row>
     <row r="32" spans="2:128" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
@@ -10685,34 +11789,34 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="5"/>
       <c r="BA32" s="5"/>
-      <c r="BB32" s="69" t="s">
+      <c r="BB32" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="BC32" s="70"/>
-      <c r="BD32" s="70"/>
-      <c r="BE32" s="70"/>
-      <c r="BF32" s="70"/>
-      <c r="BG32" s="70"/>
-      <c r="BH32" s="70"/>
-      <c r="BI32" s="70"/>
-      <c r="BJ32" s="71"/>
+      <c r="BC32" s="73"/>
+      <c r="BD32" s="73"/>
+      <c r="BE32" s="73"/>
+      <c r="BF32" s="73"/>
+      <c r="BG32" s="73"/>
+      <c r="BH32" s="73"/>
+      <c r="BI32" s="73"/>
+      <c r="BJ32" s="74"/>
       <c r="BK32" s="5"/>
       <c r="BL32" s="6"/>
       <c r="BM32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BN32" s="69" t="s">
+      <c r="BN32" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="BO32" s="70"/>
-      <c r="BP32" s="70"/>
-      <c r="BQ32" s="70"/>
-      <c r="BR32" s="70"/>
-      <c r="BS32" s="70"/>
-      <c r="BT32" s="70"/>
-      <c r="BU32" s="70"/>
-      <c r="BV32" s="70"/>
-      <c r="BW32" s="71"/>
+      <c r="BO32" s="73"/>
+      <c r="BP32" s="73"/>
+      <c r="BQ32" s="73"/>
+      <c r="BR32" s="73"/>
+      <c r="BS32" s="73"/>
+      <c r="BT32" s="73"/>
+      <c r="BU32" s="73"/>
+      <c r="BV32" s="73"/>
+      <c r="BW32" s="74"/>
       <c r="CG32" s="3"/>
     </row>
     <row r="33" spans="2:87" ht="16.8" x14ac:dyDescent="0.3">
@@ -10751,28 +11855,28 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="5"/>
       <c r="BA33" s="5"/>
-      <c r="BB33" s="72"/>
-      <c r="BC33" s="73"/>
-      <c r="BD33" s="73"/>
-      <c r="BE33" s="73"/>
-      <c r="BF33" s="73"/>
-      <c r="BG33" s="73"/>
-      <c r="BH33" s="73"/>
-      <c r="BI33" s="73"/>
-      <c r="BJ33" s="74"/>
+      <c r="BB33" s="75"/>
+      <c r="BC33" s="76"/>
+      <c r="BD33" s="76"/>
+      <c r="BE33" s="76"/>
+      <c r="BF33" s="76"/>
+      <c r="BG33" s="76"/>
+      <c r="BH33" s="76"/>
+      <c r="BI33" s="76"/>
+      <c r="BJ33" s="77"/>
       <c r="BK33" s="5"/>
       <c r="BL33" s="6"/>
       <c r="BM33" s="23"/>
-      <c r="BN33" s="72"/>
-      <c r="BO33" s="73"/>
-      <c r="BP33" s="73"/>
-      <c r="BQ33" s="73"/>
-      <c r="BR33" s="73"/>
-      <c r="BS33" s="73"/>
-      <c r="BT33" s="73"/>
-      <c r="BU33" s="73"/>
-      <c r="BV33" s="73"/>
-      <c r="BW33" s="74"/>
+      <c r="BN33" s="75"/>
+      <c r="BO33" s="76"/>
+      <c r="BP33" s="76"/>
+      <c r="BQ33" s="76"/>
+      <c r="BR33" s="76"/>
+      <c r="BS33" s="76"/>
+      <c r="BT33" s="76"/>
+      <c r="BU33" s="76"/>
+      <c r="BV33" s="76"/>
+      <c r="BW33" s="77"/>
     </row>
     <row r="34" spans="2:87" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
@@ -10799,47 +11903,47 @@
       <c r="W34" s="29"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="63" t="s">
+      <c r="AQ34" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="64"/>
-      <c r="AX34" s="65"/>
+      <c r="AR34" s="97"/>
+      <c r="AS34" s="97"/>
+      <c r="AT34" s="97"/>
+      <c r="AU34" s="97"/>
+      <c r="AV34" s="97"/>
+      <c r="AW34" s="97"/>
+      <c r="AX34" s="98"/>
       <c r="AY34" s="5"/>
       <c r="AZ34" s="5"/>
       <c r="BA34" s="5"/>
-      <c r="BB34" s="69" t="s">
+      <c r="BB34" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="BC34" s="70"/>
-      <c r="BD34" s="70"/>
-      <c r="BE34" s="70"/>
-      <c r="BF34" s="70"/>
-      <c r="BG34" s="70"/>
-      <c r="BH34" s="70"/>
-      <c r="BI34" s="70"/>
-      <c r="BJ34" s="71"/>
+      <c r="BC34" s="73"/>
+      <c r="BD34" s="73"/>
+      <c r="BE34" s="73"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="73"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="73"/>
+      <c r="BJ34" s="74"/>
       <c r="BK34" s="5"/>
       <c r="BL34" s="6"/>
       <c r="BM34" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="BN34" s="69" t="s">
+      <c r="BN34" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="BO34" s="70"/>
-      <c r="BP34" s="70"/>
-      <c r="BQ34" s="70"/>
-      <c r="BR34" s="70"/>
-      <c r="BS34" s="70"/>
-      <c r="BT34" s="70"/>
-      <c r="BU34" s="70"/>
-      <c r="BV34" s="70"/>
-      <c r="BW34" s="71"/>
+      <c r="BO34" s="73"/>
+      <c r="BP34" s="73"/>
+      <c r="BQ34" s="73"/>
+      <c r="BR34" s="73"/>
+      <c r="BS34" s="73"/>
+      <c r="BT34" s="73"/>
+      <c r="BU34" s="73"/>
+      <c r="BV34" s="73"/>
+      <c r="BW34" s="74"/>
     </row>
     <row r="35" spans="2:87" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
@@ -10865,39 +11969,39 @@
       <c r="V35" s="2"/>
       <c r="W35" s="29"/>
       <c r="AP35" s="4"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="67"/>
-      <c r="AS35" s="67"/>
-      <c r="AT35" s="67"/>
-      <c r="AU35" s="67"/>
-      <c r="AV35" s="67"/>
-      <c r="AW35" s="67"/>
-      <c r="AX35" s="68"/>
+      <c r="AQ35" s="99"/>
+      <c r="AR35" s="100"/>
+      <c r="AS35" s="100"/>
+      <c r="AT35" s="100"/>
+      <c r="AU35" s="100"/>
+      <c r="AV35" s="100"/>
+      <c r="AW35" s="100"/>
+      <c r="AX35" s="101"/>
       <c r="AY35" s="5"/>
       <c r="AZ35" s="5"/>
       <c r="BA35" s="5"/>
-      <c r="BB35" s="72"/>
-      <c r="BC35" s="73"/>
-      <c r="BD35" s="73"/>
-      <c r="BE35" s="73"/>
-      <c r="BF35" s="73"/>
-      <c r="BG35" s="73"/>
-      <c r="BH35" s="73"/>
-      <c r="BI35" s="73"/>
-      <c r="BJ35" s="74"/>
+      <c r="BB35" s="75"/>
+      <c r="BC35" s="76"/>
+      <c r="BD35" s="76"/>
+      <c r="BE35" s="76"/>
+      <c r="BF35" s="76"/>
+      <c r="BG35" s="76"/>
+      <c r="BH35" s="76"/>
+      <c r="BI35" s="76"/>
+      <c r="BJ35" s="77"/>
       <c r="BK35" s="5"/>
       <c r="BL35" s="6"/>
       <c r="BM35" s="23"/>
-      <c r="BN35" s="72"/>
-      <c r="BO35" s="73"/>
-      <c r="BP35" s="73"/>
-      <c r="BQ35" s="73"/>
-      <c r="BR35" s="73"/>
-      <c r="BS35" s="73"/>
-      <c r="BT35" s="73"/>
-      <c r="BU35" s="73"/>
-      <c r="BV35" s="73"/>
-      <c r="BW35" s="74"/>
+      <c r="BN35" s="75"/>
+      <c r="BO35" s="76"/>
+      <c r="BP35" s="76"/>
+      <c r="BQ35" s="76"/>
+      <c r="BR35" s="76"/>
+      <c r="BS35" s="76"/>
+      <c r="BT35" s="76"/>
+      <c r="BU35" s="76"/>
+      <c r="BV35" s="76"/>
+      <c r="BW35" s="77"/>
       <c r="CG35" s="2"/>
       <c r="CH35" s="2"/>
       <c r="CI35" s="2"/>
@@ -10926,47 +12030,47 @@
       <c r="V36" s="2"/>
       <c r="W36" s="29"/>
       <c r="AP36" s="4"/>
-      <c r="AQ36" s="81" t="s">
+      <c r="AQ36" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AR36" s="82"/>
-      <c r="AS36" s="82"/>
-      <c r="AT36" s="82"/>
-      <c r="AU36" s="82"/>
-      <c r="AV36" s="82"/>
-      <c r="AW36" s="82"/>
-      <c r="AX36" s="83"/>
+      <c r="AR36" s="91"/>
+      <c r="AS36" s="91"/>
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="91"/>
+      <c r="AV36" s="91"/>
+      <c r="AW36" s="91"/>
+      <c r="AX36" s="92"/>
       <c r="AY36" s="5"/>
       <c r="AZ36" s="5"/>
       <c r="BA36" s="5"/>
-      <c r="BB36" s="69" t="s">
+      <c r="BB36" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="BC36" s="70"/>
-      <c r="BD36" s="70"/>
-      <c r="BE36" s="70"/>
-      <c r="BF36" s="70"/>
-      <c r="BG36" s="70"/>
-      <c r="BH36" s="70"/>
-      <c r="BI36" s="70"/>
-      <c r="BJ36" s="71"/>
+      <c r="BC36" s="73"/>
+      <c r="BD36" s="73"/>
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="73"/>
+      <c r="BJ36" s="74"/>
       <c r="BK36" s="5"/>
       <c r="BL36" s="6"/>
       <c r="BM36" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BN36" s="69" t="s">
+      <c r="BN36" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="BO36" s="70"/>
-      <c r="BP36" s="70"/>
-      <c r="BQ36" s="70"/>
-      <c r="BR36" s="70"/>
-      <c r="BS36" s="70"/>
-      <c r="BT36" s="70"/>
-      <c r="BU36" s="70"/>
-      <c r="BV36" s="70"/>
-      <c r="BW36" s="71"/>
+      <c r="BO36" s="73"/>
+      <c r="BP36" s="73"/>
+      <c r="BQ36" s="73"/>
+      <c r="BR36" s="73"/>
+      <c r="BS36" s="73"/>
+      <c r="BT36" s="73"/>
+      <c r="BU36" s="73"/>
+      <c r="BV36" s="73"/>
+      <c r="BW36" s="74"/>
       <c r="CG36" s="2"/>
       <c r="CH36" s="2"/>
       <c r="CI36" s="2"/>
@@ -10995,39 +12099,39 @@
       <c r="V37" s="2"/>
       <c r="W37" s="29"/>
       <c r="AP37" s="4"/>
-      <c r="AQ37" s="84"/>
-      <c r="AR37" s="85"/>
-      <c r="AS37" s="85"/>
-      <c r="AT37" s="85"/>
-      <c r="AU37" s="85"/>
-      <c r="AV37" s="85"/>
-      <c r="AW37" s="85"/>
-      <c r="AX37" s="86"/>
+      <c r="AQ37" s="93"/>
+      <c r="AR37" s="94"/>
+      <c r="AS37" s="94"/>
+      <c r="AT37" s="94"/>
+      <c r="AU37" s="94"/>
+      <c r="AV37" s="94"/>
+      <c r="AW37" s="94"/>
+      <c r="AX37" s="95"/>
       <c r="AY37" s="5"/>
       <c r="AZ37" s="5"/>
       <c r="BA37" s="5"/>
-      <c r="BB37" s="72"/>
-      <c r="BC37" s="73"/>
-      <c r="BD37" s="73"/>
-      <c r="BE37" s="73"/>
-      <c r="BF37" s="73"/>
-      <c r="BG37" s="73"/>
-      <c r="BH37" s="73"/>
-      <c r="BI37" s="73"/>
-      <c r="BJ37" s="74"/>
+      <c r="BB37" s="75"/>
+      <c r="BC37" s="76"/>
+      <c r="BD37" s="76"/>
+      <c r="BE37" s="76"/>
+      <c r="BF37" s="76"/>
+      <c r="BG37" s="76"/>
+      <c r="BH37" s="76"/>
+      <c r="BI37" s="76"/>
+      <c r="BJ37" s="77"/>
       <c r="BK37" s="5"/>
       <c r="BL37" s="6"/>
       <c r="BM37" s="23"/>
-      <c r="BN37" s="72"/>
-      <c r="BO37" s="73"/>
-      <c r="BP37" s="73"/>
-      <c r="BQ37" s="73"/>
-      <c r="BR37" s="73"/>
-      <c r="BS37" s="73"/>
-      <c r="BT37" s="73"/>
-      <c r="BU37" s="73"/>
-      <c r="BV37" s="73"/>
-      <c r="BW37" s="74"/>
+      <c r="BN37" s="75"/>
+      <c r="BO37" s="76"/>
+      <c r="BP37" s="76"/>
+      <c r="BQ37" s="76"/>
+      <c r="BR37" s="76"/>
+      <c r="BS37" s="76"/>
+      <c r="BT37" s="76"/>
+      <c r="BU37" s="76"/>
+      <c r="BV37" s="76"/>
+      <c r="BW37" s="77"/>
       <c r="CG37" s="2"/>
       <c r="CH37" s="2"/>
       <c r="CI37" s="2"/>
@@ -11056,47 +12160,47 @@
       <c r="V38" s="2"/>
       <c r="W38" s="29"/>
       <c r="AP38" s="4"/>
-      <c r="AQ38" s="81" t="s">
+      <c r="AQ38" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="AR38" s="82"/>
-      <c r="AS38" s="82"/>
-      <c r="AT38" s="82"/>
-      <c r="AU38" s="82"/>
-      <c r="AV38" s="82"/>
-      <c r="AW38" s="82"/>
-      <c r="AX38" s="83"/>
+      <c r="AR38" s="91"/>
+      <c r="AS38" s="91"/>
+      <c r="AT38" s="91"/>
+      <c r="AU38" s="91"/>
+      <c r="AV38" s="91"/>
+      <c r="AW38" s="91"/>
+      <c r="AX38" s="92"/>
       <c r="AY38" s="5"/>
       <c r="AZ38" s="5"/>
       <c r="BA38" s="5"/>
-      <c r="BB38" s="69" t="s">
+      <c r="BB38" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="BC38" s="70"/>
-      <c r="BD38" s="70"/>
-      <c r="BE38" s="70"/>
-      <c r="BF38" s="70"/>
-      <c r="BG38" s="70"/>
-      <c r="BH38" s="70"/>
-      <c r="BI38" s="70"/>
-      <c r="BJ38" s="71"/>
+      <c r="BC38" s="73"/>
+      <c r="BD38" s="73"/>
+      <c r="BE38" s="73"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="73"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="74"/>
       <c r="BK38" s="5"/>
       <c r="BL38" s="6"/>
       <c r="BM38" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BN38" s="69" t="s">
+      <c r="BN38" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="BO38" s="70"/>
-      <c r="BP38" s="70"/>
-      <c r="BQ38" s="70"/>
-      <c r="BR38" s="70"/>
-      <c r="BS38" s="70"/>
-      <c r="BT38" s="70"/>
-      <c r="BU38" s="70"/>
-      <c r="BV38" s="70"/>
-      <c r="BW38" s="71"/>
+      <c r="BO38" s="73"/>
+      <c r="BP38" s="73"/>
+      <c r="BQ38" s="73"/>
+      <c r="BR38" s="73"/>
+      <c r="BS38" s="73"/>
+      <c r="BT38" s="73"/>
+      <c r="BU38" s="73"/>
+      <c r="BV38" s="73"/>
+      <c r="BW38" s="74"/>
     </row>
     <row r="39" spans="2:87" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
@@ -11122,39 +12226,39 @@
       <c r="V39" s="2"/>
       <c r="W39" s="29"/>
       <c r="AP39" s="4"/>
-      <c r="AQ39" s="84"/>
-      <c r="AR39" s="85"/>
-      <c r="AS39" s="85"/>
-      <c r="AT39" s="85"/>
-      <c r="AU39" s="85"/>
-      <c r="AV39" s="85"/>
-      <c r="AW39" s="85"/>
-      <c r="AX39" s="86"/>
+      <c r="AQ39" s="93"/>
+      <c r="AR39" s="94"/>
+      <c r="AS39" s="94"/>
+      <c r="AT39" s="94"/>
+      <c r="AU39" s="94"/>
+      <c r="AV39" s="94"/>
+      <c r="AW39" s="94"/>
+      <c r="AX39" s="95"/>
       <c r="AY39" s="5"/>
       <c r="AZ39" s="5"/>
       <c r="BA39" s="5"/>
-      <c r="BB39" s="72"/>
-      <c r="BC39" s="73"/>
-      <c r="BD39" s="73"/>
-      <c r="BE39" s="73"/>
-      <c r="BF39" s="73"/>
-      <c r="BG39" s="73"/>
-      <c r="BH39" s="73"/>
-      <c r="BI39" s="73"/>
-      <c r="BJ39" s="74"/>
+      <c r="BB39" s="75"/>
+      <c r="BC39" s="76"/>
+      <c r="BD39" s="76"/>
+      <c r="BE39" s="76"/>
+      <c r="BF39" s="76"/>
+      <c r="BG39" s="76"/>
+      <c r="BH39" s="76"/>
+      <c r="BI39" s="76"/>
+      <c r="BJ39" s="77"/>
       <c r="BK39" s="5"/>
       <c r="BL39" s="6"/>
       <c r="BM39" s="23"/>
-      <c r="BN39" s="72"/>
-      <c r="BO39" s="73"/>
-      <c r="BP39" s="73"/>
-      <c r="BQ39" s="73"/>
-      <c r="BR39" s="73"/>
-      <c r="BS39" s="73"/>
-      <c r="BT39" s="73"/>
-      <c r="BU39" s="73"/>
-      <c r="BV39" s="73"/>
-      <c r="BW39" s="74"/>
+      <c r="BN39" s="75"/>
+      <c r="BO39" s="76"/>
+      <c r="BP39" s="76"/>
+      <c r="BQ39" s="76"/>
+      <c r="BR39" s="76"/>
+      <c r="BS39" s="76"/>
+      <c r="BT39" s="76"/>
+      <c r="BU39" s="76"/>
+      <c r="BV39" s="76"/>
+      <c r="BW39" s="77"/>
     </row>
     <row r="40" spans="2:87" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
@@ -11180,16 +12284,16 @@
       <c r="V40" s="2"/>
       <c r="W40" s="29"/>
       <c r="AP40" s="4"/>
-      <c r="AQ40" s="81" t="s">
+      <c r="AQ40" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="AR40" s="82"/>
-      <c r="AS40" s="82"/>
-      <c r="AT40" s="82"/>
-      <c r="AU40" s="82"/>
-      <c r="AV40" s="82"/>
-      <c r="AW40" s="82"/>
-      <c r="AX40" s="83"/>
+      <c r="AR40" s="91"/>
+      <c r="AS40" s="91"/>
+      <c r="AT40" s="91"/>
+      <c r="AU40" s="91"/>
+      <c r="AV40" s="91"/>
+      <c r="AW40" s="91"/>
+      <c r="AX40" s="92"/>
       <c r="AY40" s="5"/>
       <c r="AZ40" s="5"/>
       <c r="BA40" s="5"/>
@@ -11240,14 +12344,14 @@
       <c r="V41" s="2"/>
       <c r="W41" s="29"/>
       <c r="AP41" s="4"/>
-      <c r="AQ41" s="84"/>
-      <c r="AR41" s="85"/>
-      <c r="AS41" s="85"/>
-      <c r="AT41" s="85"/>
-      <c r="AU41" s="85"/>
-      <c r="AV41" s="85"/>
-      <c r="AW41" s="85"/>
-      <c r="AX41" s="86"/>
+      <c r="AQ41" s="93"/>
+      <c r="AR41" s="94"/>
+      <c r="AS41" s="94"/>
+      <c r="AT41" s="94"/>
+      <c r="AU41" s="94"/>
+      <c r="AV41" s="94"/>
+      <c r="AW41" s="94"/>
+      <c r="AX41" s="95"/>
       <c r="AY41" s="5"/>
       <c r="AZ41" s="5"/>
       <c r="BA41" s="5"/>
@@ -11298,45 +12402,45 @@
       <c r="V42" s="2"/>
       <c r="W42" s="29"/>
       <c r="AP42" s="4"/>
-      <c r="AQ42" s="81" t="s">
+      <c r="AQ42" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="AR42" s="82"/>
-      <c r="AS42" s="82"/>
-      <c r="AT42" s="82"/>
-      <c r="AU42" s="82"/>
-      <c r="AV42" s="82"/>
-      <c r="AW42" s="82"/>
-      <c r="AX42" s="83"/>
+      <c r="AR42" s="91"/>
+      <c r="AS42" s="91"/>
+      <c r="AT42" s="91"/>
+      <c r="AU42" s="91"/>
+      <c r="AV42" s="91"/>
+      <c r="AW42" s="91"/>
+      <c r="AX42" s="92"/>
       <c r="AY42" s="5"/>
       <c r="AZ42" s="5"/>
       <c r="BA42" s="5"/>
-      <c r="BB42" s="107" t="s">
+      <c r="BB42" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="BC42" s="108"/>
-      <c r="BD42" s="108"/>
-      <c r="BE42" s="108"/>
-      <c r="BF42" s="108"/>
-      <c r="BG42" s="108"/>
-      <c r="BH42" s="108"/>
-      <c r="BI42" s="108"/>
-      <c r="BJ42" s="109"/>
+      <c r="BC42" s="44"/>
+      <c r="BD42" s="44"/>
+      <c r="BE42" s="44"/>
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="44"/>
+      <c r="BI42" s="44"/>
+      <c r="BJ42" s="45"/>
       <c r="BK42" s="5"/>
       <c r="BL42" s="5"/>
       <c r="BM42" s="21"/>
-      <c r="BN42" s="75" t="s">
+      <c r="BN42" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="BO42" s="76"/>
-      <c r="BP42" s="76"/>
-      <c r="BQ42" s="76"/>
-      <c r="BR42" s="76"/>
-      <c r="BS42" s="76"/>
-      <c r="BT42" s="76"/>
-      <c r="BU42" s="76"/>
-      <c r="BV42" s="76"/>
-      <c r="BW42" s="77"/>
+      <c r="BO42" s="39"/>
+      <c r="BP42" s="39"/>
+      <c r="BQ42" s="39"/>
+      <c r="BR42" s="39"/>
+      <c r="BS42" s="39"/>
+      <c r="BT42" s="39"/>
+      <c r="BU42" s="39"/>
+      <c r="BV42" s="39"/>
+      <c r="BW42" s="161"/>
     </row>
     <row r="43" spans="2:87" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
@@ -11362,39 +12466,39 @@
       <c r="V43" s="2"/>
       <c r="W43" s="29"/>
       <c r="AP43" s="4"/>
-      <c r="AQ43" s="84"/>
-      <c r="AR43" s="85"/>
-      <c r="AS43" s="85"/>
-      <c r="AT43" s="85"/>
-      <c r="AU43" s="85"/>
-      <c r="AV43" s="85"/>
-      <c r="AW43" s="85"/>
-      <c r="AX43" s="86"/>
+      <c r="AQ43" s="93"/>
+      <c r="AR43" s="94"/>
+      <c r="AS43" s="94"/>
+      <c r="AT43" s="94"/>
+      <c r="AU43" s="94"/>
+      <c r="AV43" s="94"/>
+      <c r="AW43" s="94"/>
+      <c r="AX43" s="95"/>
       <c r="AY43" s="5"/>
       <c r="AZ43" s="5"/>
       <c r="BA43" s="5"/>
-      <c r="BB43" s="151"/>
-      <c r="BC43" s="152"/>
-      <c r="BD43" s="152"/>
-      <c r="BE43" s="152"/>
-      <c r="BF43" s="152"/>
-      <c r="BG43" s="152"/>
-      <c r="BH43" s="152"/>
-      <c r="BI43" s="152"/>
-      <c r="BJ43" s="153"/>
+      <c r="BB43" s="69"/>
+      <c r="BC43" s="70"/>
+      <c r="BD43" s="70"/>
+      <c r="BE43" s="70"/>
+      <c r="BF43" s="70"/>
+      <c r="BG43" s="70"/>
+      <c r="BH43" s="70"/>
+      <c r="BI43" s="70"/>
+      <c r="BJ43" s="71"/>
       <c r="BK43" s="5"/>
       <c r="BL43" s="5"/>
       <c r="BM43" s="21"/>
-      <c r="BN43" s="78"/>
-      <c r="BO43" s="79"/>
-      <c r="BP43" s="79"/>
-      <c r="BQ43" s="79"/>
-      <c r="BR43" s="79"/>
-      <c r="BS43" s="79"/>
-      <c r="BT43" s="79"/>
-      <c r="BU43" s="79"/>
-      <c r="BV43" s="79"/>
-      <c r="BW43" s="80"/>
+      <c r="BN43" s="162"/>
+      <c r="BO43" s="41"/>
+      <c r="BP43" s="41"/>
+      <c r="BQ43" s="41"/>
+      <c r="BR43" s="41"/>
+      <c r="BS43" s="41"/>
+      <c r="BT43" s="41"/>
+      <c r="BU43" s="41"/>
+      <c r="BV43" s="41"/>
+      <c r="BW43" s="163"/>
     </row>
     <row r="44" spans="2:87" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
@@ -11420,47 +12524,47 @@
       <c r="V44" s="2"/>
       <c r="W44" s="29"/>
       <c r="AP44" s="4"/>
-      <c r="AQ44" s="81" t="s">
+      <c r="AQ44" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="AR44" s="82"/>
-      <c r="AS44" s="82"/>
-      <c r="AT44" s="82"/>
-      <c r="AU44" s="82"/>
-      <c r="AV44" s="82"/>
-      <c r="AW44" s="82"/>
-      <c r="AX44" s="83"/>
+      <c r="AR44" s="91"/>
+      <c r="AS44" s="91"/>
+      <c r="AT44" s="91"/>
+      <c r="AU44" s="91"/>
+      <c r="AV44" s="91"/>
+      <c r="AW44" s="91"/>
+      <c r="AX44" s="92"/>
       <c r="AY44" s="5"/>
       <c r="AZ44" s="5"/>
       <c r="BA44" s="5"/>
-      <c r="BB44" s="81" t="s">
+      <c r="BB44" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="BC44" s="82"/>
-      <c r="BD44" s="82"/>
-      <c r="BE44" s="82"/>
-      <c r="BF44" s="82"/>
-      <c r="BG44" s="82"/>
-      <c r="BH44" s="82"/>
-      <c r="BI44" s="82"/>
-      <c r="BJ44" s="83"/>
+      <c r="BC44" s="91"/>
+      <c r="BD44" s="91"/>
+      <c r="BE44" s="91"/>
+      <c r="BF44" s="91"/>
+      <c r="BG44" s="91"/>
+      <c r="BH44" s="91"/>
+      <c r="BI44" s="91"/>
+      <c r="BJ44" s="92"/>
       <c r="BK44" s="5"/>
       <c r="BL44" s="5"/>
       <c r="BM44" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BN44" s="69" t="s">
+      <c r="BN44" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="BO44" s="70"/>
-      <c r="BP44" s="70"/>
-      <c r="BQ44" s="70"/>
-      <c r="BR44" s="70"/>
-      <c r="BS44" s="70"/>
-      <c r="BT44" s="70"/>
-      <c r="BU44" s="70"/>
-      <c r="BV44" s="70"/>
-      <c r="BW44" s="71"/>
+      <c r="BO44" s="73"/>
+      <c r="BP44" s="73"/>
+      <c r="BQ44" s="73"/>
+      <c r="BR44" s="73"/>
+      <c r="BS44" s="73"/>
+      <c r="BT44" s="73"/>
+      <c r="BU44" s="73"/>
+      <c r="BV44" s="73"/>
+      <c r="BW44" s="74"/>
     </row>
     <row r="45" spans="2:87" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
@@ -11486,39 +12590,39 @@
       <c r="V45" s="2"/>
       <c r="W45" s="29"/>
       <c r="AP45" s="4"/>
-      <c r="AQ45" s="84"/>
-      <c r="AR45" s="85"/>
-      <c r="AS45" s="85"/>
-      <c r="AT45" s="85"/>
-      <c r="AU45" s="85"/>
-      <c r="AV45" s="85"/>
-      <c r="AW45" s="85"/>
-      <c r="AX45" s="86"/>
+      <c r="AQ45" s="93"/>
+      <c r="AR45" s="94"/>
+      <c r="AS45" s="94"/>
+      <c r="AT45" s="94"/>
+      <c r="AU45" s="94"/>
+      <c r="AV45" s="94"/>
+      <c r="AW45" s="94"/>
+      <c r="AX45" s="95"/>
       <c r="AY45" s="5"/>
       <c r="AZ45" s="5"/>
       <c r="BA45" s="5"/>
-      <c r="BB45" s="84"/>
-      <c r="BC45" s="85"/>
-      <c r="BD45" s="85"/>
-      <c r="BE45" s="85"/>
-      <c r="BF45" s="85"/>
-      <c r="BG45" s="85"/>
-      <c r="BH45" s="85"/>
-      <c r="BI45" s="85"/>
-      <c r="BJ45" s="86"/>
+      <c r="BB45" s="93"/>
+      <c r="BC45" s="94"/>
+      <c r="BD45" s="94"/>
+      <c r="BE45" s="94"/>
+      <c r="BF45" s="94"/>
+      <c r="BG45" s="94"/>
+      <c r="BH45" s="94"/>
+      <c r="BI45" s="94"/>
+      <c r="BJ45" s="95"/>
       <c r="BK45" s="5"/>
       <c r="BL45" s="5"/>
       <c r="BM45" s="21"/>
-      <c r="BN45" s="72"/>
-      <c r="BO45" s="73"/>
-      <c r="BP45" s="73"/>
-      <c r="BQ45" s="73"/>
-      <c r="BR45" s="73"/>
-      <c r="BS45" s="73"/>
-      <c r="BT45" s="73"/>
-      <c r="BU45" s="73"/>
-      <c r="BV45" s="73"/>
-      <c r="BW45" s="74"/>
+      <c r="BN45" s="75"/>
+      <c r="BO45" s="76"/>
+      <c r="BP45" s="76"/>
+      <c r="BQ45" s="76"/>
+      <c r="BR45" s="76"/>
+      <c r="BS45" s="76"/>
+      <c r="BT45" s="76"/>
+      <c r="BU45" s="76"/>
+      <c r="BV45" s="76"/>
+      <c r="BW45" s="77"/>
     </row>
     <row r="46" spans="2:87" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
@@ -11544,47 +12648,47 @@
       <c r="V46" s="2"/>
       <c r="W46" s="29"/>
       <c r="AP46" s="4"/>
-      <c r="AQ46" s="81" t="s">
+      <c r="AQ46" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AR46" s="82"/>
-      <c r="AS46" s="82"/>
-      <c r="AT46" s="82"/>
-      <c r="AU46" s="82"/>
-      <c r="AV46" s="82"/>
-      <c r="AW46" s="82"/>
-      <c r="AX46" s="83"/>
+      <c r="AR46" s="91"/>
+      <c r="AS46" s="91"/>
+      <c r="AT46" s="91"/>
+      <c r="AU46" s="91"/>
+      <c r="AV46" s="91"/>
+      <c r="AW46" s="91"/>
+      <c r="AX46" s="92"/>
       <c r="AY46" s="5"/>
       <c r="AZ46" s="5"/>
       <c r="BA46" s="5"/>
-      <c r="BB46" s="81" t="s">
+      <c r="BB46" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="BC46" s="82"/>
-      <c r="BD46" s="82"/>
-      <c r="BE46" s="82"/>
-      <c r="BF46" s="82"/>
-      <c r="BG46" s="82"/>
-      <c r="BH46" s="82"/>
-      <c r="BI46" s="82"/>
-      <c r="BJ46" s="83"/>
+      <c r="BC46" s="91"/>
+      <c r="BD46" s="91"/>
+      <c r="BE46" s="91"/>
+      <c r="BF46" s="91"/>
+      <c r="BG46" s="91"/>
+      <c r="BH46" s="91"/>
+      <c r="BI46" s="91"/>
+      <c r="BJ46" s="92"/>
       <c r="BK46" s="5"/>
       <c r="BL46" s="5"/>
       <c r="BM46" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="BN46" s="69" t="s">
+      <c r="BN46" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="BO46" s="70"/>
-      <c r="BP46" s="70"/>
-      <c r="BQ46" s="70"/>
-      <c r="BR46" s="70"/>
-      <c r="BS46" s="70"/>
-      <c r="BT46" s="70"/>
-      <c r="BU46" s="70"/>
-      <c r="BV46" s="70"/>
-      <c r="BW46" s="71"/>
+      <c r="BO46" s="73"/>
+      <c r="BP46" s="73"/>
+      <c r="BQ46" s="73"/>
+      <c r="BR46" s="73"/>
+      <c r="BS46" s="73"/>
+      <c r="BT46" s="73"/>
+      <c r="BU46" s="73"/>
+      <c r="BV46" s="73"/>
+      <c r="BW46" s="74"/>
     </row>
     <row r="47" spans="2:87" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
@@ -11610,39 +12714,39 @@
       <c r="V47" s="2"/>
       <c r="W47" s="29"/>
       <c r="AP47" s="4"/>
-      <c r="AQ47" s="84"/>
-      <c r="AR47" s="85"/>
-      <c r="AS47" s="85"/>
-      <c r="AT47" s="85"/>
-      <c r="AU47" s="85"/>
-      <c r="AV47" s="85"/>
-      <c r="AW47" s="85"/>
-      <c r="AX47" s="86"/>
+      <c r="AQ47" s="93"/>
+      <c r="AR47" s="94"/>
+      <c r="AS47" s="94"/>
+      <c r="AT47" s="94"/>
+      <c r="AU47" s="94"/>
+      <c r="AV47" s="94"/>
+      <c r="AW47" s="94"/>
+      <c r="AX47" s="95"/>
       <c r="AY47" s="5"/>
       <c r="AZ47" s="5"/>
       <c r="BA47" s="5"/>
-      <c r="BB47" s="84"/>
-      <c r="BC47" s="85"/>
-      <c r="BD47" s="85"/>
-      <c r="BE47" s="85"/>
-      <c r="BF47" s="85"/>
-      <c r="BG47" s="85"/>
-      <c r="BH47" s="85"/>
-      <c r="BI47" s="85"/>
-      <c r="BJ47" s="86"/>
+      <c r="BB47" s="93"/>
+      <c r="BC47" s="94"/>
+      <c r="BD47" s="94"/>
+      <c r="BE47" s="94"/>
+      <c r="BF47" s="94"/>
+      <c r="BG47" s="94"/>
+      <c r="BH47" s="94"/>
+      <c r="BI47" s="94"/>
+      <c r="BJ47" s="95"/>
       <c r="BK47" s="5"/>
       <c r="BL47" s="5"/>
       <c r="BM47" s="21"/>
-      <c r="BN47" s="72"/>
-      <c r="BO47" s="73"/>
-      <c r="BP47" s="73"/>
-      <c r="BQ47" s="73"/>
-      <c r="BR47" s="73"/>
-      <c r="BS47" s="73"/>
-      <c r="BT47" s="73"/>
-      <c r="BU47" s="73"/>
-      <c r="BV47" s="73"/>
-      <c r="BW47" s="74"/>
+      <c r="BN47" s="75"/>
+      <c r="BO47" s="76"/>
+      <c r="BP47" s="76"/>
+      <c r="BQ47" s="76"/>
+      <c r="BR47" s="76"/>
+      <c r="BS47" s="76"/>
+      <c r="BT47" s="76"/>
+      <c r="BU47" s="76"/>
+      <c r="BV47" s="76"/>
+      <c r="BW47" s="77"/>
     </row>
     <row r="48" spans="2:87" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
@@ -11693,18 +12797,18 @@
       <c r="BM48" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BN48" s="69" t="s">
+      <c r="BN48" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="BO48" s="70"/>
-      <c r="BP48" s="70"/>
-      <c r="BQ48" s="70"/>
-      <c r="BR48" s="70"/>
-      <c r="BS48" s="70"/>
-      <c r="BT48" s="70"/>
-      <c r="BU48" s="70"/>
-      <c r="BV48" s="70"/>
-      <c r="BW48" s="71"/>
+      <c r="BO48" s="73"/>
+      <c r="BP48" s="73"/>
+      <c r="BQ48" s="73"/>
+      <c r="BR48" s="73"/>
+      <c r="BS48" s="73"/>
+      <c r="BT48" s="73"/>
+      <c r="BU48" s="73"/>
+      <c r="BV48" s="73"/>
+      <c r="BW48" s="74"/>
     </row>
     <row r="49" spans="1:93" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
@@ -11733,16 +12837,16 @@
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
       <c r="AP49" s="5"/>
-      <c r="AQ49" s="51" t="s">
+      <c r="AQ49" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="AR49" s="52"/>
-      <c r="AS49" s="52"/>
-      <c r="AT49" s="52"/>
-      <c r="AU49" s="52"/>
-      <c r="AV49" s="52"/>
-      <c r="AW49" s="52"/>
-      <c r="AX49" s="53"/>
+      <c r="AR49" s="79"/>
+      <c r="AS49" s="79"/>
+      <c r="AT49" s="79"/>
+      <c r="AU49" s="79"/>
+      <c r="AV49" s="79"/>
+      <c r="AW49" s="79"/>
+      <c r="AX49" s="80"/>
       <c r="AY49" s="5"/>
       <c r="AZ49" s="5"/>
       <c r="BA49" s="5"/>
@@ -11758,16 +12862,16 @@
       <c r="BK49" s="5"/>
       <c r="BL49" s="5"/>
       <c r="BM49" s="21"/>
-      <c r="BN49" s="72"/>
-      <c r="BO49" s="73"/>
-      <c r="BP49" s="73"/>
-      <c r="BQ49" s="73"/>
-      <c r="BR49" s="73"/>
-      <c r="BS49" s="73"/>
-      <c r="BT49" s="73"/>
-      <c r="BU49" s="73"/>
-      <c r="BV49" s="73"/>
-      <c r="BW49" s="74"/>
+      <c r="BN49" s="75"/>
+      <c r="BO49" s="76"/>
+      <c r="BP49" s="76"/>
+      <c r="BQ49" s="76"/>
+      <c r="BR49" s="76"/>
+      <c r="BS49" s="76"/>
+      <c r="BT49" s="76"/>
+      <c r="BU49" s="76"/>
+      <c r="BV49" s="76"/>
+      <c r="BW49" s="77"/>
     </row>
     <row r="50" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
@@ -11792,14 +12896,14 @@
       <c r="U50" s="30"/>
       <c r="V50" s="2"/>
       <c r="W50" s="29"/>
-      <c r="AQ50" s="54"/>
-      <c r="AR50" s="55"/>
-      <c r="AS50" s="55"/>
-      <c r="AT50" s="55"/>
-      <c r="AU50" s="55"/>
-      <c r="AV50" s="55"/>
-      <c r="AW50" s="55"/>
-      <c r="AX50" s="56"/>
+      <c r="AQ50" s="81"/>
+      <c r="AR50" s="82"/>
+      <c r="AS50" s="82"/>
+      <c r="AT50" s="82"/>
+      <c r="AU50" s="82"/>
+      <c r="AV50" s="82"/>
+      <c r="AW50" s="82"/>
+      <c r="AX50" s="83"/>
       <c r="CG50" s="3"/>
     </row>
     <row r="51" spans="1:93" ht="16.8" x14ac:dyDescent="0.3">
@@ -11998,17 +13102,17 @@
       <c r="BN53" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="BO53" s="87" t="s">
+      <c r="BO53" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="BP53" s="87"/>
-      <c r="BQ53" s="87"/>
-      <c r="BR53" s="87"/>
-      <c r="BS53" s="87"/>
-      <c r="BT53" s="87"/>
-      <c r="BU53" s="87"/>
-      <c r="BV53" s="87"/>
-      <c r="BW53" s="87"/>
+      <c r="BP53" s="134"/>
+      <c r="BQ53" s="134"/>
+      <c r="BR53" s="134"/>
+      <c r="BS53" s="134"/>
+      <c r="BT53" s="134"/>
+      <c r="BU53" s="134"/>
+      <c r="BV53" s="134"/>
+      <c r="BW53" s="134"/>
     </row>
     <row r="54" spans="1:93" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
@@ -12062,15 +13166,15 @@
       <c r="BL54" s="5"/>
       <c r="BM54" s="5"/>
       <c r="BN54" s="6"/>
-      <c r="BO54" s="87"/>
-      <c r="BP54" s="87"/>
-      <c r="BQ54" s="87"/>
-      <c r="BR54" s="87"/>
-      <c r="BS54" s="87"/>
-      <c r="BT54" s="87"/>
-      <c r="BU54" s="87"/>
-      <c r="BV54" s="87"/>
-      <c r="BW54" s="87"/>
+      <c r="BO54" s="134"/>
+      <c r="BP54" s="134"/>
+      <c r="BQ54" s="134"/>
+      <c r="BR54" s="134"/>
+      <c r="BS54" s="134"/>
+      <c r="BT54" s="134"/>
+      <c r="BU54" s="134"/>
+      <c r="BV54" s="134"/>
+      <c r="BW54" s="134"/>
     </row>
     <row r="55" spans="1:93" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
@@ -12132,15 +13236,15 @@
       <c r="BL55" s="5"/>
       <c r="BM55" s="5"/>
       <c r="BN55" s="6"/>
-      <c r="BO55" s="87"/>
-      <c r="BP55" s="87"/>
-      <c r="BQ55" s="87"/>
-      <c r="BR55" s="87"/>
-      <c r="BS55" s="87"/>
-      <c r="BT55" s="87"/>
-      <c r="BU55" s="87"/>
-      <c r="BV55" s="87"/>
-      <c r="BW55" s="87"/>
+      <c r="BO55" s="134"/>
+      <c r="BP55" s="134"/>
+      <c r="BQ55" s="134"/>
+      <c r="BR55" s="134"/>
+      <c r="BS55" s="134"/>
+      <c r="BT55" s="134"/>
+      <c r="BU55" s="134"/>
+      <c r="BV55" s="134"/>
+      <c r="BW55" s="134"/>
     </row>
     <row r="56" spans="1:93" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
@@ -12196,15 +13300,15 @@
       <c r="BL56" s="5"/>
       <c r="BM56" s="5"/>
       <c r="BN56" s="6"/>
-      <c r="BO56" s="87"/>
-      <c r="BP56" s="87"/>
-      <c r="BQ56" s="87"/>
-      <c r="BR56" s="87"/>
-      <c r="BS56" s="87"/>
-      <c r="BT56" s="87"/>
-      <c r="BU56" s="87"/>
-      <c r="BV56" s="87"/>
-      <c r="BW56" s="87"/>
+      <c r="BO56" s="134"/>
+      <c r="BP56" s="134"/>
+      <c r="BQ56" s="134"/>
+      <c r="BR56" s="134"/>
+      <c r="BS56" s="134"/>
+      <c r="BT56" s="134"/>
+      <c r="BU56" s="134"/>
+      <c r="BV56" s="134"/>
+      <c r="BW56" s="134"/>
     </row>
     <row r="57" spans="1:93" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
@@ -12268,15 +13372,15 @@
       <c r="BL57" s="6"/>
       <c r="BM57" s="6"/>
       <c r="BN57" s="6"/>
-      <c r="BO57" s="87"/>
-      <c r="BP57" s="87"/>
-      <c r="BQ57" s="87"/>
-      <c r="BR57" s="87"/>
-      <c r="BS57" s="87"/>
-      <c r="BT57" s="87"/>
-      <c r="BU57" s="87"/>
-      <c r="BV57" s="87"/>
-      <c r="BW57" s="87"/>
+      <c r="BO57" s="134"/>
+      <c r="BP57" s="134"/>
+      <c r="BQ57" s="134"/>
+      <c r="BR57" s="134"/>
+      <c r="BS57" s="134"/>
+      <c r="BT57" s="134"/>
+      <c r="BU57" s="134"/>
+      <c r="BV57" s="134"/>
+      <c r="BW57" s="134"/>
       <c r="CN57" s="38"/>
     </row>
     <row r="58" spans="1:93" ht="16.8" x14ac:dyDescent="0.3">
@@ -12423,418 +13527,598 @@
       <c r="W61" s="29"/>
     </row>
     <row r="62" spans="1:93" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="154"/>
-      <c r="B62" s="155"/>
-      <c r="C62" s="155"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="156"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="104"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="127"/>
-      <c r="M62" s="128"/>
-      <c r="N62" s="128"/>
-      <c r="O62" s="128"/>
-      <c r="P62" s="128"/>
-      <c r="Q62" s="128"/>
-      <c r="R62" s="128"/>
-      <c r="S62" s="128"/>
-      <c r="T62" s="128"/>
-      <c r="U62" s="129"/>
+      <c r="L62" s="128"/>
+      <c r="M62" s="129"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129"/>
+      <c r="P62" s="129"/>
+      <c r="Q62" s="129"/>
+      <c r="R62" s="129"/>
+      <c r="S62" s="129"/>
+      <c r="T62" s="129"/>
+      <c r="U62" s="130"/>
       <c r="V62" s="2"/>
       <c r="W62" s="29"/>
     </row>
     <row r="63" spans="1:93" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="157"/>
-      <c r="B63" s="158"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="159"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="107"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
-      <c r="O63" s="131"/>
-      <c r="P63" s="131"/>
-      <c r="Q63" s="131"/>
-      <c r="R63" s="131"/>
-      <c r="S63" s="131"/>
-      <c r="T63" s="131"/>
-      <c r="U63" s="132"/>
+      <c r="L63" s="131"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="132"/>
+      <c r="R63" s="132"/>
+      <c r="S63" s="132"/>
+      <c r="T63" s="132"/>
+      <c r="U63" s="133"/>
       <c r="V63" s="2"/>
       <c r="W63" s="29"/>
     </row>
     <row r="64" spans="1:93" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="119"/>
-      <c r="B64" s="120"/>
-      <c r="C64" s="120"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="120"/>
-      <c r="J64" s="121"/>
+      <c r="A64" s="120"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="110"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="125"/>
-      <c r="M64" s="120"/>
-      <c r="N64" s="120"/>
-      <c r="O64" s="120"/>
-      <c r="P64" s="120"/>
-      <c r="Q64" s="120"/>
-      <c r="R64" s="120"/>
-      <c r="S64" s="120"/>
-      <c r="T64" s="120"/>
-      <c r="U64" s="121"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="109"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="109"/>
+      <c r="R64" s="109"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="109"/>
+      <c r="U64" s="110"/>
       <c r="V64" s="2"/>
       <c r="W64" s="29"/>
     </row>
-    <row r="65" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="122"/>
-      <c r="B65" s="123"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="123"/>
-      <c r="I65" s="123"/>
-      <c r="J65" s="124"/>
+    <row r="65" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="121"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="113"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="126"/>
-      <c r="M65" s="123"/>
-      <c r="N65" s="123"/>
-      <c r="O65" s="123"/>
-      <c r="P65" s="123"/>
-      <c r="Q65" s="123"/>
-      <c r="R65" s="123"/>
-      <c r="S65" s="123"/>
-      <c r="T65" s="123"/>
-      <c r="U65" s="124"/>
+      <c r="L65" s="111"/>
+      <c r="M65" s="112"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="112"/>
+      <c r="R65" s="112"/>
+      <c r="S65" s="112"/>
+      <c r="T65" s="112"/>
+      <c r="U65" s="113"/>
       <c r="V65" s="2"/>
       <c r="W65" s="29"/>
-      <c r="Y65" s="45" t="s">
+      <c r="Y65" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="Z65" s="46"/>
-      <c r="AA65" s="46"/>
-      <c r="AB65" s="46"/>
-      <c r="AC65" s="46"/>
-      <c r="AD65" s="46"/>
-      <c r="AE65" s="46"/>
-      <c r="AF65" s="46"/>
-      <c r="AG65" s="46"/>
-      <c r="AH65" s="46"/>
-      <c r="AI65" s="46"/>
-      <c r="AJ65" s="46"/>
-      <c r="AK65" s="46"/>
-      <c r="AL65" s="47"/>
-      <c r="AQ65" s="45" t="s">
+      <c r="Z65" s="171"/>
+      <c r="AA65" s="171"/>
+      <c r="AB65" s="171"/>
+      <c r="AC65" s="171"/>
+      <c r="AD65" s="171"/>
+      <c r="AE65" s="171"/>
+      <c r="AF65" s="171"/>
+      <c r="AG65" s="171"/>
+      <c r="AH65" s="171"/>
+      <c r="AI65" s="171"/>
+      <c r="AJ65" s="171"/>
+      <c r="AK65" s="171"/>
+      <c r="AL65" s="172"/>
+      <c r="AQ65" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="AR65" s="46"/>
-      <c r="AS65" s="46"/>
-      <c r="AT65" s="46"/>
-      <c r="AU65" s="46"/>
-      <c r="AV65" s="46"/>
-      <c r="AW65" s="46"/>
-      <c r="AX65" s="46"/>
-      <c r="AY65" s="46"/>
-      <c r="AZ65" s="46"/>
-      <c r="BA65" s="46"/>
-      <c r="BB65" s="46"/>
-      <c r="BC65" s="46"/>
-      <c r="BD65" s="47"/>
+      <c r="AR65" s="171"/>
+      <c r="AS65" s="171"/>
+      <c r="AT65" s="171"/>
+      <c r="AU65" s="171"/>
+      <c r="AV65" s="171"/>
+      <c r="AW65" s="171"/>
+      <c r="AX65" s="171"/>
+      <c r="AY65" s="171"/>
+      <c r="AZ65" s="171"/>
+      <c r="BA65" s="171"/>
+      <c r="BB65" s="171"/>
+      <c r="BC65" s="171"/>
+      <c r="BD65" s="172"/>
+      <c r="BN65" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO65" s="171"/>
+      <c r="BP65" s="171"/>
+      <c r="BQ65" s="171"/>
+      <c r="BR65" s="171"/>
+      <c r="BS65" s="171"/>
+      <c r="BT65" s="171"/>
+      <c r="BU65" s="171"/>
+      <c r="BV65" s="171"/>
+      <c r="BW65" s="171"/>
+      <c r="BX65" s="171"/>
+      <c r="BY65" s="171"/>
+      <c r="BZ65" s="171"/>
+      <c r="CA65" s="172"/>
+      <c r="CF65" s="170" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG65" s="171"/>
+      <c r="CH65" s="171"/>
+      <c r="CI65" s="171"/>
+      <c r="CJ65" s="171"/>
+      <c r="CK65" s="171"/>
+      <c r="CL65" s="171"/>
+      <c r="CM65" s="171"/>
+      <c r="CN65" s="171"/>
+      <c r="CO65" s="171"/>
+      <c r="CP65" s="171"/>
+      <c r="CQ65" s="171"/>
+      <c r="CR65" s="171"/>
+      <c r="CS65" s="172"/>
     </row>
-    <row r="66" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="119"/>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="121"/>
+    <row r="66" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="120"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="110"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="125"/>
-      <c r="M66" s="120"/>
-      <c r="N66" s="120"/>
-      <c r="O66" s="120"/>
-      <c r="P66" s="120"/>
-      <c r="Q66" s="120"/>
-      <c r="R66" s="120"/>
-      <c r="S66" s="120"/>
-      <c r="T66" s="120"/>
-      <c r="U66" s="121"/>
+      <c r="L66" s="108"/>
+      <c r="M66" s="109"/>
+      <c r="N66" s="109"/>
+      <c r="O66" s="109"/>
+      <c r="P66" s="109"/>
+      <c r="Q66" s="109"/>
+      <c r="R66" s="109"/>
+      <c r="S66" s="109"/>
+      <c r="T66" s="109"/>
+      <c r="U66" s="110"/>
       <c r="V66" s="2"/>
       <c r="W66" s="29"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="49"/>
-      <c r="AC66" s="49"/>
-      <c r="AD66" s="49"/>
-      <c r="AE66" s="49"/>
-      <c r="AF66" s="49"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="49"/>
-      <c r="AI66" s="49"/>
-      <c r="AJ66" s="49"/>
-      <c r="AK66" s="49"/>
-      <c r="AL66" s="50"/>
-      <c r="AQ66" s="48"/>
-      <c r="AR66" s="49"/>
-      <c r="AS66" s="49"/>
-      <c r="AT66" s="49"/>
-      <c r="AU66" s="49"/>
-      <c r="AV66" s="49"/>
-      <c r="AW66" s="49"/>
-      <c r="AX66" s="49"/>
-      <c r="AY66" s="49"/>
-      <c r="AZ66" s="49"/>
-      <c r="BA66" s="49"/>
-      <c r="BB66" s="49"/>
-      <c r="BC66" s="49"/>
-      <c r="BD66" s="50"/>
+      <c r="Y66" s="173"/>
+      <c r="Z66" s="174"/>
+      <c r="AA66" s="174"/>
+      <c r="AB66" s="174"/>
+      <c r="AC66" s="174"/>
+      <c r="AD66" s="174"/>
+      <c r="AE66" s="174"/>
+      <c r="AF66" s="174"/>
+      <c r="AG66" s="174"/>
+      <c r="AH66" s="174"/>
+      <c r="AI66" s="174"/>
+      <c r="AJ66" s="174"/>
+      <c r="AK66" s="174"/>
+      <c r="AL66" s="175"/>
+      <c r="AQ66" s="173"/>
+      <c r="AR66" s="174"/>
+      <c r="AS66" s="174"/>
+      <c r="AT66" s="174"/>
+      <c r="AU66" s="174"/>
+      <c r="AV66" s="174"/>
+      <c r="AW66" s="174"/>
+      <c r="AX66" s="174"/>
+      <c r="AY66" s="174"/>
+      <c r="AZ66" s="174"/>
+      <c r="BA66" s="174"/>
+      <c r="BB66" s="174"/>
+      <c r="BC66" s="174"/>
+      <c r="BD66" s="175"/>
+      <c r="BN66" s="173"/>
+      <c r="BO66" s="174"/>
+      <c r="BP66" s="174"/>
+      <c r="BQ66" s="174"/>
+      <c r="BR66" s="174"/>
+      <c r="BS66" s="174"/>
+      <c r="BT66" s="174"/>
+      <c r="BU66" s="174"/>
+      <c r="BV66" s="174"/>
+      <c r="BW66" s="174"/>
+      <c r="BX66" s="174"/>
+      <c r="BY66" s="174"/>
+      <c r="BZ66" s="174"/>
+      <c r="CA66" s="175"/>
+      <c r="CF66" s="173"/>
+      <c r="CG66" s="174"/>
+      <c r="CH66" s="174"/>
+      <c r="CI66" s="174"/>
+      <c r="CJ66" s="174"/>
+      <c r="CK66" s="174"/>
+      <c r="CL66" s="174"/>
+      <c r="CM66" s="174"/>
+      <c r="CN66" s="174"/>
+      <c r="CO66" s="174"/>
+      <c r="CP66" s="174"/>
+      <c r="CQ66" s="174"/>
+      <c r="CR66" s="174"/>
+      <c r="CS66" s="175"/>
     </row>
-    <row r="67" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="122"/>
-      <c r="B67" s="123"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="123"/>
-      <c r="G67" s="123"/>
-      <c r="H67" s="123"/>
-      <c r="I67" s="123"/>
-      <c r="J67" s="124"/>
+    <row r="67" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="121"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="126"/>
-      <c r="M67" s="123"/>
-      <c r="N67" s="123"/>
-      <c r="O67" s="123"/>
-      <c r="P67" s="123"/>
-      <c r="Q67" s="123"/>
-      <c r="R67" s="123"/>
-      <c r="S67" s="123"/>
-      <c r="T67" s="123"/>
-      <c r="U67" s="124"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="112"/>
+      <c r="N67" s="112"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="112"/>
+      <c r="Q67" s="112"/>
+      <c r="R67" s="112"/>
+      <c r="S67" s="112"/>
+      <c r="T67" s="112"/>
+      <c r="U67" s="113"/>
       <c r="V67" s="2"/>
       <c r="W67" s="29"/>
+      <c r="CF67"/>
+      <c r="CG67"/>
+      <c r="CH67"/>
+      <c r="CI67"/>
+      <c r="CJ67"/>
+      <c r="CK67"/>
+      <c r="CL67"/>
+      <c r="CM67"/>
+      <c r="CN67"/>
+      <c r="CO67"/>
+      <c r="CP67"/>
+      <c r="CQ67"/>
+      <c r="CR67"/>
+      <c r="CS67"/>
     </row>
-    <row r="68" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="119"/>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="121"/>
+    <row r="68" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="120"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="109"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="110"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="125"/>
-      <c r="M68" s="120"/>
-      <c r="N68" s="120"/>
-      <c r="O68" s="120"/>
-      <c r="P68" s="120"/>
-      <c r="Q68" s="120"/>
-      <c r="R68" s="120"/>
-      <c r="S68" s="120"/>
-      <c r="T68" s="120"/>
-      <c r="U68" s="121"/>
+      <c r="L68" s="108"/>
+      <c r="M68" s="109"/>
+      <c r="N68" s="109"/>
+      <c r="O68" s="109"/>
+      <c r="P68" s="109"/>
+      <c r="Q68" s="109"/>
+      <c r="R68" s="109"/>
+      <c r="S68" s="109"/>
+      <c r="T68" s="109"/>
+      <c r="U68" s="110"/>
       <c r="V68" s="2"/>
       <c r="W68" s="29"/>
-      <c r="Y68" s="39" t="s">
+      <c r="Y68" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="Z68" s="40"/>
-      <c r="AA68" s="40"/>
-      <c r="AB68" s="40"/>
-      <c r="AC68" s="40"/>
-      <c r="AD68" s="40"/>
-      <c r="AE68" s="40"/>
-      <c r="AF68" s="40"/>
-      <c r="AG68" s="40"/>
-      <c r="AH68" s="40"/>
-      <c r="AI68" s="40"/>
-      <c r="AJ68" s="40"/>
-      <c r="AK68" s="40"/>
-      <c r="AL68" s="41"/>
-      <c r="AQ68" s="39" t="s">
+      <c r="Z68" s="165"/>
+      <c r="AA68" s="165"/>
+      <c r="AB68" s="165"/>
+      <c r="AC68" s="165"/>
+      <c r="AD68" s="165"/>
+      <c r="AE68" s="165"/>
+      <c r="AF68" s="165"/>
+      <c r="AG68" s="165"/>
+      <c r="AH68" s="165"/>
+      <c r="AI68" s="165"/>
+      <c r="AJ68" s="165"/>
+      <c r="AK68" s="165"/>
+      <c r="AL68" s="166"/>
+      <c r="AQ68" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="AR68" s="40"/>
-      <c r="AS68" s="40"/>
-      <c r="AT68" s="40"/>
-      <c r="AU68" s="40"/>
-      <c r="AV68" s="40"/>
-      <c r="AW68" s="40"/>
-      <c r="AX68" s="40"/>
-      <c r="AY68" s="40"/>
-      <c r="AZ68" s="40"/>
-      <c r="BA68" s="40"/>
-      <c r="BB68" s="40"/>
-      <c r="BC68" s="40"/>
-      <c r="BD68" s="41"/>
+      <c r="AR68" s="165"/>
+      <c r="AS68" s="165"/>
+      <c r="AT68" s="165"/>
+      <c r="AU68" s="165"/>
+      <c r="AV68" s="165"/>
+      <c r="AW68" s="165"/>
+      <c r="AX68" s="165"/>
+      <c r="AY68" s="165"/>
+      <c r="AZ68" s="165"/>
+      <c r="BA68" s="165"/>
+      <c r="BB68" s="165"/>
+      <c r="BC68" s="165"/>
+      <c r="BD68" s="166"/>
+      <c r="BN68" s="176" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO68" s="177"/>
+      <c r="BP68" s="177"/>
+      <c r="BQ68" s="177"/>
+      <c r="BR68" s="177"/>
+      <c r="BS68" s="177"/>
+      <c r="BT68" s="177"/>
+      <c r="BU68" s="177"/>
+      <c r="BV68" s="177"/>
+      <c r="BW68" s="177"/>
+      <c r="BX68" s="177"/>
+      <c r="BY68" s="177"/>
+      <c r="BZ68" s="177"/>
+      <c r="CA68" s="178"/>
+      <c r="CF68" s="176" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG68" s="177"/>
+      <c r="CH68" s="177"/>
+      <c r="CI68" s="177"/>
+      <c r="CJ68" s="177"/>
+      <c r="CK68" s="177"/>
+      <c r="CL68" s="177"/>
+      <c r="CM68" s="177"/>
+      <c r="CN68" s="177"/>
+      <c r="CO68" s="177"/>
+      <c r="CP68" s="177"/>
+      <c r="CQ68" s="177"/>
+      <c r="CR68" s="177"/>
+      <c r="CS68" s="178"/>
     </row>
-    <row r="69" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="122"/>
-      <c r="B69" s="123"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="123"/>
-      <c r="G69" s="123"/>
-      <c r="H69" s="123"/>
-      <c r="I69" s="123"/>
-      <c r="J69" s="124"/>
+    <row r="69" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="121"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="112"/>
+      <c r="H69" s="112"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="113"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="126"/>
-      <c r="M69" s="123"/>
-      <c r="N69" s="123"/>
-      <c r="O69" s="123"/>
-      <c r="P69" s="123"/>
-      <c r="Q69" s="123"/>
-      <c r="R69" s="123"/>
-      <c r="S69" s="123"/>
-      <c r="T69" s="123"/>
-      <c r="U69" s="124"/>
+      <c r="L69" s="111"/>
+      <c r="M69" s="112"/>
+      <c r="N69" s="112"/>
+      <c r="O69" s="112"/>
+      <c r="P69" s="112"/>
+      <c r="Q69" s="112"/>
+      <c r="R69" s="112"/>
+      <c r="S69" s="112"/>
+      <c r="T69" s="112"/>
+      <c r="U69" s="113"/>
       <c r="V69" s="2"/>
       <c r="W69" s="29"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="43"/>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="43"/>
-      <c r="AF69" s="43"/>
-      <c r="AG69" s="43"/>
-      <c r="AH69" s="43"/>
-      <c r="AI69" s="43"/>
-      <c r="AJ69" s="43"/>
-      <c r="AK69" s="43"/>
-      <c r="AL69" s="44"/>
-      <c r="AQ69" s="42"/>
-      <c r="AR69" s="43"/>
-      <c r="AS69" s="43"/>
-      <c r="AT69" s="43"/>
-      <c r="AU69" s="43"/>
-      <c r="AV69" s="43"/>
-      <c r="AW69" s="43"/>
-      <c r="AX69" s="43"/>
-      <c r="AY69" s="43"/>
-      <c r="AZ69" s="43"/>
-      <c r="BA69" s="43"/>
-      <c r="BB69" s="43"/>
-      <c r="BC69" s="43"/>
-      <c r="BD69" s="44"/>
+      <c r="Y69" s="167"/>
+      <c r="Z69" s="168"/>
+      <c r="AA69" s="168"/>
+      <c r="AB69" s="168"/>
+      <c r="AC69" s="168"/>
+      <c r="AD69" s="168"/>
+      <c r="AE69" s="168"/>
+      <c r="AF69" s="168"/>
+      <c r="AG69" s="168"/>
+      <c r="AH69" s="168"/>
+      <c r="AI69" s="168"/>
+      <c r="AJ69" s="168"/>
+      <c r="AK69" s="168"/>
+      <c r="AL69" s="169"/>
+      <c r="AQ69" s="167"/>
+      <c r="AR69" s="168"/>
+      <c r="AS69" s="168"/>
+      <c r="AT69" s="168"/>
+      <c r="AU69" s="168"/>
+      <c r="AV69" s="168"/>
+      <c r="AW69" s="168"/>
+      <c r="AX69" s="168"/>
+      <c r="AY69" s="168"/>
+      <c r="AZ69" s="168"/>
+      <c r="BA69" s="168"/>
+      <c r="BB69" s="168"/>
+      <c r="BC69" s="168"/>
+      <c r="BD69" s="169"/>
+      <c r="BN69" s="179"/>
+      <c r="BO69" s="180"/>
+      <c r="BP69" s="180"/>
+      <c r="BQ69" s="180"/>
+      <c r="BR69" s="180"/>
+      <c r="BS69" s="180"/>
+      <c r="BT69" s="180"/>
+      <c r="BU69" s="180"/>
+      <c r="BV69" s="180"/>
+      <c r="BW69" s="180"/>
+      <c r="BX69" s="180"/>
+      <c r="BY69" s="180"/>
+      <c r="BZ69" s="180"/>
+      <c r="CA69" s="181"/>
+      <c r="CF69" s="179"/>
+      <c r="CG69" s="180"/>
+      <c r="CH69" s="180"/>
+      <c r="CI69" s="180"/>
+      <c r="CJ69" s="180"/>
+      <c r="CK69" s="180"/>
+      <c r="CL69" s="180"/>
+      <c r="CM69" s="180"/>
+      <c r="CN69" s="180"/>
+      <c r="CO69" s="180"/>
+      <c r="CP69" s="180"/>
+      <c r="CQ69" s="180"/>
+      <c r="CR69" s="180"/>
+      <c r="CS69" s="181"/>
     </row>
-    <row r="70" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="119"/>
-      <c r="B70" s="120"/>
-      <c r="C70" s="120"/>
-      <c r="D70" s="120"/>
-      <c r="E70" s="120"/>
-      <c r="F70" s="120"/>
-      <c r="G70" s="120"/>
-      <c r="H70" s="120"/>
-      <c r="I70" s="120"/>
-      <c r="J70" s="121"/>
+    <row r="70" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="120"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="109"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="110"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="120"/>
-      <c r="N70" s="120"/>
-      <c r="O70" s="120"/>
-      <c r="P70" s="120"/>
-      <c r="Q70" s="120"/>
-      <c r="R70" s="120"/>
-      <c r="S70" s="120"/>
-      <c r="T70" s="120"/>
-      <c r="U70" s="121"/>
+      <c r="L70" s="108"/>
+      <c r="M70" s="109"/>
+      <c r="N70" s="109"/>
+      <c r="O70" s="109"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="109"/>
+      <c r="R70" s="109"/>
+      <c r="S70" s="109"/>
+      <c r="T70" s="109"/>
+      <c r="U70" s="110"/>
       <c r="V70" s="2"/>
       <c r="W70" s="29"/>
+      <c r="CF70"/>
+      <c r="CG70"/>
+      <c r="CH70"/>
+      <c r="CI70"/>
+      <c r="CJ70"/>
+      <c r="CK70"/>
+      <c r="CL70"/>
+      <c r="CM70"/>
+      <c r="CN70"/>
+      <c r="CO70"/>
+      <c r="CP70"/>
+      <c r="CQ70"/>
+      <c r="CR70"/>
+      <c r="CS70"/>
     </row>
-    <row r="71" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="122"/>
-      <c r="B71" s="123"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="123"/>
-      <c r="H71" s="123"/>
-      <c r="I71" s="123"/>
-      <c r="J71" s="124"/>
+    <row r="71" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="121"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="112"/>
+      <c r="H71" s="112"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="113"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="126"/>
-      <c r="M71" s="123"/>
-      <c r="N71" s="123"/>
-      <c r="O71" s="123"/>
-      <c r="P71" s="123"/>
-      <c r="Q71" s="123"/>
-      <c r="R71" s="123"/>
-      <c r="S71" s="123"/>
-      <c r="T71" s="123"/>
-      <c r="U71" s="124"/>
+      <c r="L71" s="111"/>
+      <c r="M71" s="112"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="112"/>
+      <c r="R71" s="112"/>
+      <c r="S71" s="112"/>
+      <c r="T71" s="112"/>
+      <c r="U71" s="113"/>
       <c r="V71" s="2"/>
       <c r="W71" s="29"/>
-      <c r="Y71" s="39" t="s">
+      <c r="Y71" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="40"/>
-      <c r="AB71" s="40"/>
-      <c r="AC71" s="40"/>
-      <c r="AD71" s="40"/>
-      <c r="AE71" s="40"/>
-      <c r="AF71" s="40"/>
-      <c r="AG71" s="40"/>
-      <c r="AH71" s="40"/>
-      <c r="AI71" s="40"/>
-      <c r="AJ71" s="40"/>
-      <c r="AK71" s="40"/>
-      <c r="AL71" s="41"/>
-      <c r="AQ71" s="39" t="s">
+      <c r="Z71" s="165"/>
+      <c r="AA71" s="165"/>
+      <c r="AB71" s="165"/>
+      <c r="AC71" s="165"/>
+      <c r="AD71" s="165"/>
+      <c r="AE71" s="165"/>
+      <c r="AF71" s="165"/>
+      <c r="AG71" s="165"/>
+      <c r="AH71" s="165"/>
+      <c r="AI71" s="165"/>
+      <c r="AJ71" s="165"/>
+      <c r="AK71" s="165"/>
+      <c r="AL71" s="166"/>
+      <c r="AQ71" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="AR71" s="40"/>
-      <c r="AS71" s="40"/>
-      <c r="AT71" s="40"/>
-      <c r="AU71" s="40"/>
-      <c r="AV71" s="40"/>
-      <c r="AW71" s="40"/>
-      <c r="AX71" s="40"/>
-      <c r="AY71" s="40"/>
-      <c r="AZ71" s="40"/>
-      <c r="BA71" s="40"/>
-      <c r="BB71" s="40"/>
-      <c r="BC71" s="40"/>
-      <c r="BD71" s="41"/>
+      <c r="AR71" s="165"/>
+      <c r="AS71" s="165"/>
+      <c r="AT71" s="165"/>
+      <c r="AU71" s="165"/>
+      <c r="AV71" s="165"/>
+      <c r="AW71" s="165"/>
+      <c r="AX71" s="165"/>
+      <c r="AY71" s="165"/>
+      <c r="AZ71" s="165"/>
+      <c r="BA71" s="165"/>
+      <c r="BB71" s="165"/>
+      <c r="BC71" s="165"/>
+      <c r="BD71" s="166"/>
+      <c r="BN71" s="176" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO71" s="177"/>
+      <c r="BP71" s="177"/>
+      <c r="BQ71" s="177"/>
+      <c r="BR71" s="177"/>
+      <c r="BS71" s="177"/>
+      <c r="BT71" s="177"/>
+      <c r="BU71" s="177"/>
+      <c r="BV71" s="177"/>
+      <c r="BW71" s="177"/>
+      <c r="BX71" s="177"/>
+      <c r="BY71" s="177"/>
+      <c r="BZ71" s="177"/>
+      <c r="CA71" s="178"/>
+      <c r="CF71" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG71" s="177"/>
+      <c r="CH71" s="177"/>
+      <c r="CI71" s="177"/>
+      <c r="CJ71" s="177"/>
+      <c r="CK71" s="177"/>
+      <c r="CL71" s="177"/>
+      <c r="CM71" s="177"/>
+      <c r="CN71" s="177"/>
+      <c r="CO71" s="177"/>
+      <c r="CP71" s="177"/>
+      <c r="CQ71" s="177"/>
+      <c r="CR71" s="177"/>
+      <c r="CS71" s="178"/>
     </row>
-    <row r="72" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="119"/>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="120"/>
-      <c r="I72" s="120"/>
-      <c r="J72" s="121"/>
+    <row r="72" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="120"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="110"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -12848,46 +14132,74 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="29"/>
-      <c r="Y72" s="42"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-      <c r="AD72" s="43"/>
-      <c r="AE72" s="43"/>
-      <c r="AF72" s="43"/>
-      <c r="AG72" s="43"/>
-      <c r="AH72" s="43"/>
-      <c r="AI72" s="43"/>
-      <c r="AJ72" s="43"/>
-      <c r="AK72" s="43"/>
-      <c r="AL72" s="44"/>
-      <c r="AQ72" s="42"/>
-      <c r="AR72" s="43"/>
-      <c r="AS72" s="43"/>
-      <c r="AT72" s="43"/>
-      <c r="AU72" s="43"/>
-      <c r="AV72" s="43"/>
-      <c r="AW72" s="43"/>
-      <c r="AX72" s="43"/>
-      <c r="AY72" s="43"/>
-      <c r="AZ72" s="43"/>
-      <c r="BA72" s="43"/>
-      <c r="BB72" s="43"/>
-      <c r="BC72" s="43"/>
-      <c r="BD72" s="44"/>
+      <c r="Y72" s="167"/>
+      <c r="Z72" s="168"/>
+      <c r="AA72" s="168"/>
+      <c r="AB72" s="168"/>
+      <c r="AC72" s="168"/>
+      <c r="AD72" s="168"/>
+      <c r="AE72" s="168"/>
+      <c r="AF72" s="168"/>
+      <c r="AG72" s="168"/>
+      <c r="AH72" s="168"/>
+      <c r="AI72" s="168"/>
+      <c r="AJ72" s="168"/>
+      <c r="AK72" s="168"/>
+      <c r="AL72" s="169"/>
+      <c r="AQ72" s="167"/>
+      <c r="AR72" s="168"/>
+      <c r="AS72" s="168"/>
+      <c r="AT72" s="168"/>
+      <c r="AU72" s="168"/>
+      <c r="AV72" s="168"/>
+      <c r="AW72" s="168"/>
+      <c r="AX72" s="168"/>
+      <c r="AY72" s="168"/>
+      <c r="AZ72" s="168"/>
+      <c r="BA72" s="168"/>
+      <c r="BB72" s="168"/>
+      <c r="BC72" s="168"/>
+      <c r="BD72" s="169"/>
+      <c r="BN72" s="179"/>
+      <c r="BO72" s="180"/>
+      <c r="BP72" s="180"/>
+      <c r="BQ72" s="180"/>
+      <c r="BR72" s="180"/>
+      <c r="BS72" s="180"/>
+      <c r="BT72" s="180"/>
+      <c r="BU72" s="180"/>
+      <c r="BV72" s="180"/>
+      <c r="BW72" s="180"/>
+      <c r="BX72" s="180"/>
+      <c r="BY72" s="180"/>
+      <c r="BZ72" s="180"/>
+      <c r="CA72" s="181"/>
+      <c r="CF72" s="179"/>
+      <c r="CG72" s="180"/>
+      <c r="CH72" s="180"/>
+      <c r="CI72" s="180"/>
+      <c r="CJ72" s="180"/>
+      <c r="CK72" s="180"/>
+      <c r="CL72" s="180"/>
+      <c r="CM72" s="180"/>
+      <c r="CN72" s="180"/>
+      <c r="CO72" s="180"/>
+      <c r="CP72" s="180"/>
+      <c r="CQ72" s="180"/>
+      <c r="CR72" s="180"/>
+      <c r="CS72" s="181"/>
     </row>
-    <row r="73" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="122"/>
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="123"/>
-      <c r="I73" s="123"/>
-      <c r="J73" s="124"/>
+    <row r="73" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="121"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="112"/>
+      <c r="J73" s="113"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -12901,8 +14213,22 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="29"/>
+      <c r="CF73"/>
+      <c r="CG73"/>
+      <c r="CH73"/>
+      <c r="CI73"/>
+      <c r="CJ73"/>
+      <c r="CK73"/>
+      <c r="CL73"/>
+      <c r="CM73"/>
+      <c r="CN73"/>
+      <c r="CO73"/>
+      <c r="CP73"/>
+      <c r="CQ73"/>
+      <c r="CR73"/>
+      <c r="CS73"/>
     </row>
-    <row r="74" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -12914,467 +14240,721 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="139"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="140"/>
-      <c r="O74" s="140"/>
-      <c r="P74" s="140"/>
-      <c r="Q74" s="140"/>
-      <c r="R74" s="140"/>
-      <c r="S74" s="140"/>
-      <c r="T74" s="140"/>
-      <c r="U74" s="141"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="115"/>
+      <c r="N74" s="115"/>
+      <c r="O74" s="115"/>
+      <c r="P74" s="115"/>
+      <c r="Q74" s="115"/>
+      <c r="R74" s="115"/>
+      <c r="S74" s="115"/>
+      <c r="T74" s="115"/>
+      <c r="U74" s="116"/>
       <c r="V74" s="2"/>
       <c r="W74" s="29"/>
-      <c r="Y74" s="39" t="s">
+      <c r="Y74" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="Z74" s="40"/>
-      <c r="AA74" s="40"/>
-      <c r="AB74" s="40"/>
-      <c r="AC74" s="40"/>
-      <c r="AD74" s="40"/>
-      <c r="AE74" s="40"/>
-      <c r="AF74" s="40"/>
-      <c r="AG74" s="40"/>
-      <c r="AH74" s="40"/>
-      <c r="AI74" s="40"/>
-      <c r="AJ74" s="40"/>
-      <c r="AK74" s="40"/>
-      <c r="AL74" s="41"/>
-      <c r="AQ74" s="39" t="s">
+      <c r="Z74" s="165"/>
+      <c r="AA74" s="165"/>
+      <c r="AB74" s="165"/>
+      <c r="AC74" s="165"/>
+      <c r="AD74" s="165"/>
+      <c r="AE74" s="165"/>
+      <c r="AF74" s="165"/>
+      <c r="AG74" s="165"/>
+      <c r="AH74" s="165"/>
+      <c r="AI74" s="165"/>
+      <c r="AJ74" s="165"/>
+      <c r="AK74" s="165"/>
+      <c r="AL74" s="166"/>
+      <c r="AQ74" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="AR74" s="40"/>
-      <c r="AS74" s="40"/>
-      <c r="AT74" s="40"/>
-      <c r="AU74" s="40"/>
-      <c r="AV74" s="40"/>
-      <c r="AW74" s="40"/>
-      <c r="AX74" s="40"/>
-      <c r="AY74" s="40"/>
-      <c r="AZ74" s="40"/>
-      <c r="BA74" s="40"/>
-      <c r="BB74" s="40"/>
-      <c r="BC74" s="40"/>
-      <c r="BD74" s="41"/>
+      <c r="AR74" s="165"/>
+      <c r="AS74" s="165"/>
+      <c r="AT74" s="165"/>
+      <c r="AU74" s="165"/>
+      <c r="AV74" s="165"/>
+      <c r="AW74" s="165"/>
+      <c r="AX74" s="165"/>
+      <c r="AY74" s="165"/>
+      <c r="AZ74" s="165"/>
+      <c r="BA74" s="165"/>
+      <c r="BB74" s="165"/>
+      <c r="BC74" s="165"/>
+      <c r="BD74" s="166"/>
+      <c r="BN74" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO74" s="177"/>
+      <c r="BP74" s="177"/>
+      <c r="BQ74" s="177"/>
+      <c r="BR74" s="177"/>
+      <c r="BS74" s="177"/>
+      <c r="BT74" s="177"/>
+      <c r="BU74" s="177"/>
+      <c r="BV74" s="177"/>
+      <c r="BW74" s="177"/>
+      <c r="BX74" s="177"/>
+      <c r="BY74" s="177"/>
+      <c r="BZ74" s="177"/>
+      <c r="CA74" s="178"/>
+      <c r="CF74" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG74" s="177"/>
+      <c r="CH74" s="177"/>
+      <c r="CI74" s="177"/>
+      <c r="CJ74" s="177"/>
+      <c r="CK74" s="177"/>
+      <c r="CL74" s="177"/>
+      <c r="CM74" s="177"/>
+      <c r="CN74" s="177"/>
+      <c r="CO74" s="177"/>
+      <c r="CP74" s="177"/>
+      <c r="CQ74" s="177"/>
+      <c r="CR74" s="177"/>
+      <c r="CS74" s="178"/>
     </row>
-    <row r="75" spans="1:56" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="145"/>
-      <c r="B75" s="146"/>
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="146"/>
-      <c r="G75" s="146"/>
-      <c r="H75" s="146"/>
-      <c r="I75" s="146"/>
-      <c r="J75" s="147"/>
+    <row r="75" spans="1:97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="122"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="123"/>
+      <c r="H75" s="123"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="124"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="142"/>
-      <c r="M75" s="143"/>
-      <c r="N75" s="143"/>
-      <c r="O75" s="143"/>
-      <c r="P75" s="143"/>
-      <c r="Q75" s="143"/>
-      <c r="R75" s="143"/>
-      <c r="S75" s="143"/>
-      <c r="T75" s="143"/>
-      <c r="U75" s="144"/>
+      <c r="L75" s="117"/>
+      <c r="M75" s="118"/>
+      <c r="N75" s="118"/>
+      <c r="O75" s="118"/>
+      <c r="P75" s="118"/>
+      <c r="Q75" s="118"/>
+      <c r="R75" s="118"/>
+      <c r="S75" s="118"/>
+      <c r="T75" s="118"/>
+      <c r="U75" s="119"/>
       <c r="V75" s="2"/>
       <c r="W75" s="29"/>
-      <c r="Y75" s="42"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="43"/>
-      <c r="AE75" s="43"/>
-      <c r="AF75" s="43"/>
-      <c r="AG75" s="43"/>
-      <c r="AH75" s="43"/>
-      <c r="AI75" s="43"/>
-      <c r="AJ75" s="43"/>
-      <c r="AK75" s="43"/>
-      <c r="AL75" s="44"/>
-      <c r="AQ75" s="42"/>
-      <c r="AR75" s="43"/>
-      <c r="AS75" s="43"/>
-      <c r="AT75" s="43"/>
-      <c r="AU75" s="43"/>
-      <c r="AV75" s="43"/>
-      <c r="AW75" s="43"/>
-      <c r="AX75" s="43"/>
-      <c r="AY75" s="43"/>
-      <c r="AZ75" s="43"/>
-      <c r="BA75" s="43"/>
-      <c r="BB75" s="43"/>
-      <c r="BC75" s="43"/>
-      <c r="BD75" s="44"/>
+      <c r="Y75" s="167"/>
+      <c r="Z75" s="168"/>
+      <c r="AA75" s="168"/>
+      <c r="AB75" s="168"/>
+      <c r="AC75" s="168"/>
+      <c r="AD75" s="168"/>
+      <c r="AE75" s="168"/>
+      <c r="AF75" s="168"/>
+      <c r="AG75" s="168"/>
+      <c r="AH75" s="168"/>
+      <c r="AI75" s="168"/>
+      <c r="AJ75" s="168"/>
+      <c r="AK75" s="168"/>
+      <c r="AL75" s="169"/>
+      <c r="AQ75" s="167"/>
+      <c r="AR75" s="168"/>
+      <c r="AS75" s="168"/>
+      <c r="AT75" s="168"/>
+      <c r="AU75" s="168"/>
+      <c r="AV75" s="168"/>
+      <c r="AW75" s="168"/>
+      <c r="AX75" s="168"/>
+      <c r="AY75" s="168"/>
+      <c r="AZ75" s="168"/>
+      <c r="BA75" s="168"/>
+      <c r="BB75" s="168"/>
+      <c r="BC75" s="168"/>
+      <c r="BD75" s="169"/>
+      <c r="BN75" s="179"/>
+      <c r="BO75" s="180"/>
+      <c r="BP75" s="180"/>
+      <c r="BQ75" s="180"/>
+      <c r="BR75" s="180"/>
+      <c r="BS75" s="180"/>
+      <c r="BT75" s="180"/>
+      <c r="BU75" s="180"/>
+      <c r="BV75" s="180"/>
+      <c r="BW75" s="180"/>
+      <c r="BX75" s="180"/>
+      <c r="BY75" s="180"/>
+      <c r="BZ75" s="180"/>
+      <c r="CA75" s="181"/>
+      <c r="CF75" s="179"/>
+      <c r="CG75" s="180"/>
+      <c r="CH75" s="180"/>
+      <c r="CI75" s="180"/>
+      <c r="CJ75" s="180"/>
+      <c r="CK75" s="180"/>
+      <c r="CL75" s="180"/>
+      <c r="CM75" s="180"/>
+      <c r="CN75" s="180"/>
+      <c r="CO75" s="180"/>
+      <c r="CP75" s="180"/>
+      <c r="CQ75" s="180"/>
+      <c r="CR75" s="180"/>
+      <c r="CS75" s="181"/>
     </row>
-    <row r="76" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="148"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="149"/>
-      <c r="F76" s="149"/>
-      <c r="G76" s="149"/>
-      <c r="H76" s="149"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="150"/>
+    <row r="76" spans="1:97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="125"/>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="127"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="125"/>
-      <c r="M76" s="120"/>
-      <c r="N76" s="120"/>
-      <c r="O76" s="120"/>
-      <c r="P76" s="120"/>
-      <c r="Q76" s="120"/>
-      <c r="R76" s="120"/>
-      <c r="S76" s="120"/>
-      <c r="T76" s="120"/>
-      <c r="U76" s="121"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109"/>
+      <c r="O76" s="109"/>
+      <c r="P76" s="109"/>
+      <c r="Q76" s="109"/>
+      <c r="R76" s="109"/>
+      <c r="S76" s="109"/>
+      <c r="T76" s="109"/>
+      <c r="U76" s="110"/>
       <c r="V76" s="2"/>
       <c r="W76" s="29"/>
+      <c r="CF76"/>
+      <c r="CG76"/>
+      <c r="CH76"/>
+      <c r="CI76"/>
+      <c r="CJ76"/>
+      <c r="CK76"/>
+      <c r="CL76"/>
+      <c r="CM76"/>
+      <c r="CN76"/>
+      <c r="CO76"/>
+      <c r="CP76"/>
+      <c r="CQ76"/>
+      <c r="CR76"/>
+      <c r="CS76"/>
     </row>
-    <row r="77" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="119"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="120"/>
-      <c r="F77" s="120"/>
-      <c r="G77" s="120"/>
-      <c r="H77" s="120"/>
-      <c r="I77" s="120"/>
-      <c r="J77" s="121"/>
+    <row r="77" spans="1:97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="120"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="109"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="110"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="126"/>
-      <c r="M77" s="123"/>
-      <c r="N77" s="123"/>
-      <c r="O77" s="123"/>
-      <c r="P77" s="123"/>
-      <c r="Q77" s="123"/>
-      <c r="R77" s="123"/>
-      <c r="S77" s="123"/>
-      <c r="T77" s="123"/>
-      <c r="U77" s="124"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="112"/>
+      <c r="N77" s="112"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="112"/>
+      <c r="R77" s="112"/>
+      <c r="S77" s="112"/>
+      <c r="T77" s="112"/>
+      <c r="U77" s="113"/>
       <c r="V77" s="2"/>
       <c r="W77" s="29"/>
-      <c r="Y77" s="39" t="s">
+      <c r="Y77" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="Z77" s="40"/>
-      <c r="AA77" s="40"/>
-      <c r="AB77" s="40"/>
-      <c r="AC77" s="40"/>
-      <c r="AD77" s="40"/>
-      <c r="AE77" s="40"/>
-      <c r="AF77" s="40"/>
-      <c r="AG77" s="40"/>
-      <c r="AH77" s="40"/>
-      <c r="AI77" s="40"/>
-      <c r="AJ77" s="40"/>
-      <c r="AK77" s="40"/>
-      <c r="AL77" s="41"/>
-      <c r="AQ77" s="39" t="s">
+      <c r="Z77" s="165"/>
+      <c r="AA77" s="165"/>
+      <c r="AB77" s="165"/>
+      <c r="AC77" s="165"/>
+      <c r="AD77" s="165"/>
+      <c r="AE77" s="165"/>
+      <c r="AF77" s="165"/>
+      <c r="AG77" s="165"/>
+      <c r="AH77" s="165"/>
+      <c r="AI77" s="165"/>
+      <c r="AJ77" s="165"/>
+      <c r="AK77" s="165"/>
+      <c r="AL77" s="166"/>
+      <c r="AQ77" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="AR77" s="40"/>
-      <c r="AS77" s="40"/>
-      <c r="AT77" s="40"/>
-      <c r="AU77" s="40"/>
-      <c r="AV77" s="40"/>
-      <c r="AW77" s="40"/>
-      <c r="AX77" s="40"/>
-      <c r="AY77" s="40"/>
-      <c r="AZ77" s="40"/>
-      <c r="BA77" s="40"/>
-      <c r="BB77" s="40"/>
-      <c r="BC77" s="40"/>
-      <c r="BD77" s="41"/>
+      <c r="AR77" s="165"/>
+      <c r="AS77" s="165"/>
+      <c r="AT77" s="165"/>
+      <c r="AU77" s="165"/>
+      <c r="AV77" s="165"/>
+      <c r="AW77" s="165"/>
+      <c r="AX77" s="165"/>
+      <c r="AY77" s="165"/>
+      <c r="AZ77" s="165"/>
+      <c r="BA77" s="165"/>
+      <c r="BB77" s="165"/>
+      <c r="BC77" s="165"/>
+      <c r="BD77" s="166"/>
+      <c r="BN77" s="176" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO77" s="177"/>
+      <c r="BP77" s="177"/>
+      <c r="BQ77" s="177"/>
+      <c r="BR77" s="177"/>
+      <c r="BS77" s="177"/>
+      <c r="BT77" s="177"/>
+      <c r="BU77" s="177"/>
+      <c r="BV77" s="177"/>
+      <c r="BW77" s="177"/>
+      <c r="BX77" s="177"/>
+      <c r="BY77" s="177"/>
+      <c r="BZ77" s="177"/>
+      <c r="CA77" s="178"/>
+      <c r="CF77" s="176" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG77" s="177"/>
+      <c r="CH77" s="177"/>
+      <c r="CI77" s="177"/>
+      <c r="CJ77" s="177"/>
+      <c r="CK77" s="177"/>
+      <c r="CL77" s="177"/>
+      <c r="CM77" s="177"/>
+      <c r="CN77" s="177"/>
+      <c r="CO77" s="177"/>
+      <c r="CP77" s="177"/>
+      <c r="CQ77" s="177"/>
+      <c r="CR77" s="177"/>
+      <c r="CS77" s="178"/>
     </row>
-    <row r="78" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="122"/>
-      <c r="B78" s="123"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
-      <c r="F78" s="123"/>
-      <c r="G78" s="123"/>
-      <c r="H78" s="123"/>
-      <c r="I78" s="123"/>
-      <c r="J78" s="124"/>
+    <row r="78" spans="1:97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="121"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="112"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="113"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="125"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="120"/>
-      <c r="P78" s="120"/>
-      <c r="Q78" s="120"/>
-      <c r="R78" s="120"/>
-      <c r="S78" s="120"/>
-      <c r="T78" s="120"/>
-      <c r="U78" s="121"/>
+      <c r="L78" s="108"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="109"/>
+      <c r="Q78" s="109"/>
+      <c r="R78" s="109"/>
+      <c r="S78" s="109"/>
+      <c r="T78" s="109"/>
+      <c r="U78" s="110"/>
       <c r="V78" s="2"/>
       <c r="W78" s="29"/>
-      <c r="Y78" s="42"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
-      <c r="AD78" s="43"/>
-      <c r="AE78" s="43"/>
-      <c r="AF78" s="43"/>
-      <c r="AG78" s="43"/>
-      <c r="AH78" s="43"/>
-      <c r="AI78" s="43"/>
-      <c r="AJ78" s="43"/>
-      <c r="AK78" s="43"/>
-      <c r="AL78" s="44"/>
-      <c r="AQ78" s="42"/>
-      <c r="AR78" s="43"/>
-      <c r="AS78" s="43"/>
-      <c r="AT78" s="43"/>
-      <c r="AU78" s="43"/>
-      <c r="AV78" s="43"/>
-      <c r="AW78" s="43"/>
-      <c r="AX78" s="43"/>
-      <c r="AY78" s="43"/>
-      <c r="AZ78" s="43"/>
-      <c r="BA78" s="43"/>
-      <c r="BB78" s="43"/>
-      <c r="BC78" s="43"/>
-      <c r="BD78" s="44"/>
+      <c r="Y78" s="167"/>
+      <c r="Z78" s="168"/>
+      <c r="AA78" s="168"/>
+      <c r="AB78" s="168"/>
+      <c r="AC78" s="168"/>
+      <c r="AD78" s="168"/>
+      <c r="AE78" s="168"/>
+      <c r="AF78" s="168"/>
+      <c r="AG78" s="168"/>
+      <c r="AH78" s="168"/>
+      <c r="AI78" s="168"/>
+      <c r="AJ78" s="168"/>
+      <c r="AK78" s="168"/>
+      <c r="AL78" s="169"/>
+      <c r="AQ78" s="167"/>
+      <c r="AR78" s="168"/>
+      <c r="AS78" s="168"/>
+      <c r="AT78" s="168"/>
+      <c r="AU78" s="168"/>
+      <c r="AV78" s="168"/>
+      <c r="AW78" s="168"/>
+      <c r="AX78" s="168"/>
+      <c r="AY78" s="168"/>
+      <c r="AZ78" s="168"/>
+      <c r="BA78" s="168"/>
+      <c r="BB78" s="168"/>
+      <c r="BC78" s="168"/>
+      <c r="BD78" s="169"/>
+      <c r="BN78" s="179"/>
+      <c r="BO78" s="180"/>
+      <c r="BP78" s="180"/>
+      <c r="BQ78" s="180"/>
+      <c r="BR78" s="180"/>
+      <c r="BS78" s="180"/>
+      <c r="BT78" s="180"/>
+      <c r="BU78" s="180"/>
+      <c r="BV78" s="180"/>
+      <c r="BW78" s="180"/>
+      <c r="BX78" s="180"/>
+      <c r="BY78" s="180"/>
+      <c r="BZ78" s="180"/>
+      <c r="CA78" s="181"/>
+      <c r="CF78" s="179"/>
+      <c r="CG78" s="180"/>
+      <c r="CH78" s="180"/>
+      <c r="CI78" s="180"/>
+      <c r="CJ78" s="180"/>
+      <c r="CK78" s="180"/>
+      <c r="CL78" s="180"/>
+      <c r="CM78" s="180"/>
+      <c r="CN78" s="180"/>
+      <c r="CO78" s="180"/>
+      <c r="CP78" s="180"/>
+      <c r="CQ78" s="180"/>
+      <c r="CR78" s="180"/>
+      <c r="CS78" s="181"/>
     </row>
-    <row r="79" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A79" s="119"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="120"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="120"/>
-      <c r="H79" s="120"/>
-      <c r="I79" s="120"/>
-      <c r="J79" s="121"/>
+    <row r="79" spans="1:97" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="120"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="109"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="109"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="109"/>
+      <c r="J79" s="110"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="126"/>
-      <c r="M79" s="123"/>
-      <c r="N79" s="123"/>
-      <c r="O79" s="123"/>
-      <c r="P79" s="123"/>
-      <c r="Q79" s="123"/>
-      <c r="R79" s="123"/>
-      <c r="S79" s="123"/>
-      <c r="T79" s="123"/>
-      <c r="U79" s="124"/>
+      <c r="L79" s="111"/>
+      <c r="M79" s="112"/>
+      <c r="N79" s="112"/>
+      <c r="O79" s="112"/>
+      <c r="P79" s="112"/>
+      <c r="Q79" s="112"/>
+      <c r="R79" s="112"/>
+      <c r="S79" s="112"/>
+      <c r="T79" s="112"/>
+      <c r="U79" s="113"/>
       <c r="V79" s="2"/>
       <c r="W79" s="29"/>
+      <c r="CF79"/>
+      <c r="CG79"/>
+      <c r="CH79"/>
+      <c r="CI79"/>
+      <c r="CJ79"/>
+      <c r="CK79"/>
+      <c r="CL79"/>
+      <c r="CM79"/>
+      <c r="CN79"/>
+      <c r="CO79"/>
+      <c r="CP79"/>
+      <c r="CQ79"/>
+      <c r="CR79"/>
+      <c r="CS79"/>
     </row>
-    <row r="80" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A80" s="122"/>
-      <c r="B80" s="123"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="123"/>
-      <c r="E80" s="123"/>
-      <c r="F80" s="123"/>
-      <c r="G80" s="123"/>
-      <c r="H80" s="123"/>
-      <c r="I80" s="123"/>
-      <c r="J80" s="124"/>
+    <row r="80" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A80" s="121"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="112"/>
+      <c r="G80" s="112"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="113"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="125"/>
-      <c r="M80" s="120"/>
-      <c r="N80" s="120"/>
-      <c r="O80" s="120"/>
-      <c r="P80" s="120"/>
-      <c r="Q80" s="120"/>
-      <c r="R80" s="120"/>
-      <c r="S80" s="120"/>
-      <c r="T80" s="120"/>
-      <c r="U80" s="121"/>
+      <c r="L80" s="108"/>
+      <c r="M80" s="109"/>
+      <c r="N80" s="109"/>
+      <c r="O80" s="109"/>
+      <c r="P80" s="109"/>
+      <c r="Q80" s="109"/>
+      <c r="R80" s="109"/>
+      <c r="S80" s="109"/>
+      <c r="T80" s="109"/>
+      <c r="U80" s="110"/>
       <c r="V80" s="2"/>
       <c r="W80" s="29"/>
-      <c r="Y80" s="39" t="s">
+      <c r="Y80" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="Z80" s="40"/>
-      <c r="AA80" s="40"/>
-      <c r="AB80" s="40"/>
-      <c r="AC80" s="40"/>
-      <c r="AD80" s="40"/>
-      <c r="AE80" s="40"/>
-      <c r="AF80" s="40"/>
-      <c r="AG80" s="40"/>
-      <c r="AH80" s="40"/>
-      <c r="AI80" s="40"/>
-      <c r="AJ80" s="40"/>
-      <c r="AK80" s="40"/>
-      <c r="AL80" s="41"/>
-      <c r="AQ80" s="39" t="s">
+      <c r="Z80" s="165"/>
+      <c r="AA80" s="165"/>
+      <c r="AB80" s="165"/>
+      <c r="AC80" s="165"/>
+      <c r="AD80" s="165"/>
+      <c r="AE80" s="165"/>
+      <c r="AF80" s="165"/>
+      <c r="AG80" s="165"/>
+      <c r="AH80" s="165"/>
+      <c r="AI80" s="165"/>
+      <c r="AJ80" s="165"/>
+      <c r="AK80" s="165"/>
+      <c r="AL80" s="166"/>
+      <c r="AQ80" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="AR80" s="40"/>
-      <c r="AS80" s="40"/>
-      <c r="AT80" s="40"/>
-      <c r="AU80" s="40"/>
-      <c r="AV80" s="40"/>
-      <c r="AW80" s="40"/>
-      <c r="AX80" s="40"/>
-      <c r="AY80" s="40"/>
-      <c r="AZ80" s="40"/>
-      <c r="BA80" s="40"/>
-      <c r="BB80" s="40"/>
-      <c r="BC80" s="40"/>
-      <c r="BD80" s="41"/>
+      <c r="AR80" s="165"/>
+      <c r="AS80" s="165"/>
+      <c r="AT80" s="165"/>
+      <c r="AU80" s="165"/>
+      <c r="AV80" s="165"/>
+      <c r="AW80" s="165"/>
+      <c r="AX80" s="165"/>
+      <c r="AY80" s="165"/>
+      <c r="AZ80" s="165"/>
+      <c r="BA80" s="165"/>
+      <c r="BB80" s="165"/>
+      <c r="BC80" s="165"/>
+      <c r="BD80" s="166"/>
+      <c r="BN80" s="176" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO80" s="177"/>
+      <c r="BP80" s="177"/>
+      <c r="BQ80" s="177"/>
+      <c r="BR80" s="177"/>
+      <c r="BS80" s="177"/>
+      <c r="BT80" s="177"/>
+      <c r="BU80" s="177"/>
+      <c r="BV80" s="177"/>
+      <c r="BW80" s="177"/>
+      <c r="BX80" s="177"/>
+      <c r="BY80" s="177"/>
+      <c r="BZ80" s="177"/>
+      <c r="CA80" s="178"/>
+      <c r="CF80" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG80" s="177"/>
+      <c r="CH80" s="177"/>
+      <c r="CI80" s="177"/>
+      <c r="CJ80" s="177"/>
+      <c r="CK80" s="177"/>
+      <c r="CL80" s="177"/>
+      <c r="CM80" s="177"/>
+      <c r="CN80" s="177"/>
+      <c r="CO80" s="177"/>
+      <c r="CP80" s="177"/>
+      <c r="CQ80" s="177"/>
+      <c r="CR80" s="177"/>
+      <c r="CS80" s="178"/>
     </row>
-    <row r="81" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A81" s="119"/>
-      <c r="B81" s="120"/>
-      <c r="C81" s="120"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="120"/>
-      <c r="F81" s="120"/>
-      <c r="G81" s="120"/>
-      <c r="H81" s="120"/>
-      <c r="I81" s="120"/>
-      <c r="J81" s="121"/>
+    <row r="81" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A81" s="120"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="109"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="109"/>
+      <c r="J81" s="110"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="126"/>
-      <c r="M81" s="123"/>
-      <c r="N81" s="123"/>
-      <c r="O81" s="123"/>
-      <c r="P81" s="123"/>
-      <c r="Q81" s="123"/>
-      <c r="R81" s="123"/>
-      <c r="S81" s="123"/>
-      <c r="T81" s="123"/>
-      <c r="U81" s="124"/>
+      <c r="L81" s="111"/>
+      <c r="M81" s="112"/>
+      <c r="N81" s="112"/>
+      <c r="O81" s="112"/>
+      <c r="P81" s="112"/>
+      <c r="Q81" s="112"/>
+      <c r="R81" s="112"/>
+      <c r="S81" s="112"/>
+      <c r="T81" s="112"/>
+      <c r="U81" s="113"/>
       <c r="V81" s="2"/>
       <c r="W81" s="29"/>
-      <c r="Y81" s="42"/>
-      <c r="Z81" s="43"/>
-      <c r="AA81" s="43"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="43"/>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="43"/>
-      <c r="AG81" s="43"/>
-      <c r="AH81" s="43"/>
-      <c r="AI81" s="43"/>
-      <c r="AJ81" s="43"/>
-      <c r="AK81" s="43"/>
-      <c r="AL81" s="44"/>
-      <c r="AQ81" s="42"/>
-      <c r="AR81" s="43"/>
-      <c r="AS81" s="43"/>
-      <c r="AT81" s="43"/>
-      <c r="AU81" s="43"/>
-      <c r="AV81" s="43"/>
-      <c r="AW81" s="43"/>
-      <c r="AX81" s="43"/>
-      <c r="AY81" s="43"/>
-      <c r="AZ81" s="43"/>
-      <c r="BA81" s="43"/>
-      <c r="BB81" s="43"/>
-      <c r="BC81" s="43"/>
-      <c r="BD81" s="44"/>
+      <c r="Y81" s="167"/>
+      <c r="Z81" s="168"/>
+      <c r="AA81" s="168"/>
+      <c r="AB81" s="168"/>
+      <c r="AC81" s="168"/>
+      <c r="AD81" s="168"/>
+      <c r="AE81" s="168"/>
+      <c r="AF81" s="168"/>
+      <c r="AG81" s="168"/>
+      <c r="AH81" s="168"/>
+      <c r="AI81" s="168"/>
+      <c r="AJ81" s="168"/>
+      <c r="AK81" s="168"/>
+      <c r="AL81" s="169"/>
+      <c r="AQ81" s="167"/>
+      <c r="AR81" s="168"/>
+      <c r="AS81" s="168"/>
+      <c r="AT81" s="168"/>
+      <c r="AU81" s="168"/>
+      <c r="AV81" s="168"/>
+      <c r="AW81" s="168"/>
+      <c r="AX81" s="168"/>
+      <c r="AY81" s="168"/>
+      <c r="AZ81" s="168"/>
+      <c r="BA81" s="168"/>
+      <c r="BB81" s="168"/>
+      <c r="BC81" s="168"/>
+      <c r="BD81" s="169"/>
+      <c r="BN81" s="179"/>
+      <c r="BO81" s="180"/>
+      <c r="BP81" s="180"/>
+      <c r="BQ81" s="180"/>
+      <c r="BR81" s="180"/>
+      <c r="BS81" s="180"/>
+      <c r="BT81" s="180"/>
+      <c r="BU81" s="180"/>
+      <c r="BV81" s="180"/>
+      <c r="BW81" s="180"/>
+      <c r="BX81" s="180"/>
+      <c r="BY81" s="180"/>
+      <c r="BZ81" s="180"/>
+      <c r="CA81" s="181"/>
+      <c r="CF81" s="179"/>
+      <c r="CG81" s="180"/>
+      <c r="CH81" s="180"/>
+      <c r="CI81" s="180"/>
+      <c r="CJ81" s="180"/>
+      <c r="CK81" s="180"/>
+      <c r="CL81" s="180"/>
+      <c r="CM81" s="180"/>
+      <c r="CN81" s="180"/>
+      <c r="CO81" s="180"/>
+      <c r="CP81" s="180"/>
+      <c r="CQ81" s="180"/>
+      <c r="CR81" s="180"/>
+      <c r="CS81" s="181"/>
     </row>
-    <row r="82" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A82" s="122"/>
-      <c r="B82" s="123"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="123"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="123"/>
-      <c r="G82" s="123"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="123"/>
-      <c r="J82" s="124"/>
+    <row r="82" spans="1:97" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="121"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="112"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="112"/>
+      <c r="H82" s="112"/>
+      <c r="I82" s="112"/>
+      <c r="J82" s="113"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="125"/>
-      <c r="M82" s="120"/>
-      <c r="N82" s="120"/>
-      <c r="O82" s="120"/>
-      <c r="P82" s="120"/>
-      <c r="Q82" s="120"/>
-      <c r="R82" s="120"/>
-      <c r="S82" s="120"/>
-      <c r="T82" s="120"/>
-      <c r="U82" s="121"/>
+      <c r="L82" s="108"/>
+      <c r="M82" s="109"/>
+      <c r="N82" s="109"/>
+      <c r="O82" s="109"/>
+      <c r="P82" s="109"/>
+      <c r="Q82" s="109"/>
+      <c r="R82" s="109"/>
+      <c r="S82" s="109"/>
+      <c r="T82" s="109"/>
+      <c r="U82" s="110"/>
       <c r="V82" s="2"/>
       <c r="W82" s="29"/>
+      <c r="CF82"/>
+      <c r="CG82"/>
+      <c r="CH82"/>
+      <c r="CI82"/>
+      <c r="CJ82"/>
+      <c r="CK82"/>
+      <c r="CL82"/>
+      <c r="CM82"/>
+      <c r="CN82"/>
+      <c r="CO82"/>
+      <c r="CP82"/>
+      <c r="CQ82"/>
+      <c r="CR82"/>
+      <c r="CS82"/>
     </row>
-    <row r="83" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A83" s="119"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
-      <c r="F83" s="120"/>
-      <c r="G83" s="120"/>
-      <c r="H83" s="120"/>
-      <c r="I83" s="120"/>
-      <c r="J83" s="121"/>
+    <row r="83" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A83" s="120"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="109"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="109"/>
+      <c r="H83" s="109"/>
+      <c r="I83" s="109"/>
+      <c r="J83" s="110"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="126"/>
-      <c r="M83" s="123"/>
-      <c r="N83" s="123"/>
-      <c r="O83" s="123"/>
-      <c r="P83" s="123"/>
-      <c r="Q83" s="123"/>
-      <c r="R83" s="123"/>
-      <c r="S83" s="123"/>
-      <c r="T83" s="123"/>
-      <c r="U83" s="124"/>
+      <c r="L83" s="111"/>
+      <c r="M83" s="112"/>
+      <c r="N83" s="112"/>
+      <c r="O83" s="112"/>
+      <c r="P83" s="112"/>
+      <c r="Q83" s="112"/>
+      <c r="R83" s="112"/>
+      <c r="S83" s="112"/>
+      <c r="T83" s="112"/>
+      <c r="U83" s="113"/>
       <c r="V83" s="2"/>
       <c r="W83" s="29"/>
-      <c r="Y83" s="39" t="s">
+      <c r="Y83" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="Z83" s="40"/>
-      <c r="AA83" s="40"/>
-      <c r="AB83" s="40"/>
-      <c r="AC83" s="40"/>
-      <c r="AD83" s="40"/>
-      <c r="AE83" s="40"/>
-      <c r="AF83" s="40"/>
-      <c r="AG83" s="40"/>
-      <c r="AH83" s="40"/>
-      <c r="AI83" s="40"/>
-      <c r="AJ83" s="40"/>
-      <c r="AK83" s="40"/>
-      <c r="AL83" s="41"/>
-      <c r="AQ83" s="39" t="s">
+      <c r="Z83" s="165"/>
+      <c r="AA83" s="165"/>
+      <c r="AB83" s="165"/>
+      <c r="AC83" s="165"/>
+      <c r="AD83" s="165"/>
+      <c r="AE83" s="165"/>
+      <c r="AF83" s="165"/>
+      <c r="AG83" s="165"/>
+      <c r="AH83" s="165"/>
+      <c r="AI83" s="165"/>
+      <c r="AJ83" s="165"/>
+      <c r="AK83" s="165"/>
+      <c r="AL83" s="166"/>
+      <c r="AQ83" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="AR83" s="40"/>
-      <c r="AS83" s="40"/>
-      <c r="AT83" s="40"/>
-      <c r="AU83" s="40"/>
-      <c r="AV83" s="40"/>
-      <c r="AW83" s="40"/>
-      <c r="AX83" s="40"/>
-      <c r="AY83" s="40"/>
-      <c r="AZ83" s="40"/>
-      <c r="BA83" s="40"/>
-      <c r="BB83" s="40"/>
-      <c r="BC83" s="40"/>
-      <c r="BD83" s="41"/>
+      <c r="AR83" s="165"/>
+      <c r="AS83" s="165"/>
+      <c r="AT83" s="165"/>
+      <c r="AU83" s="165"/>
+      <c r="AV83" s="165"/>
+      <c r="AW83" s="165"/>
+      <c r="AX83" s="165"/>
+      <c r="AY83" s="165"/>
+      <c r="AZ83" s="165"/>
+      <c r="BA83" s="165"/>
+      <c r="BB83" s="165"/>
+      <c r="BC83" s="165"/>
+      <c r="BD83" s="166"/>
+      <c r="BN83" s="176" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO83" s="177"/>
+      <c r="BP83" s="177"/>
+      <c r="BQ83" s="177"/>
+      <c r="BR83" s="177"/>
+      <c r="BS83" s="177"/>
+      <c r="BT83" s="177"/>
+      <c r="BU83" s="177"/>
+      <c r="BV83" s="177"/>
+      <c r="BW83" s="177"/>
+      <c r="BX83" s="177"/>
+      <c r="BY83" s="177"/>
+      <c r="BZ83" s="177"/>
+      <c r="CA83" s="178"/>
+      <c r="CF83" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG83" s="177"/>
+      <c r="CH83" s="177"/>
+      <c r="CI83" s="177"/>
+      <c r="CJ83" s="177"/>
+      <c r="CK83" s="177"/>
+      <c r="CL83" s="177"/>
+      <c r="CM83" s="177"/>
+      <c r="CN83" s="177"/>
+      <c r="CO83" s="177"/>
+      <c r="CP83" s="177"/>
+      <c r="CQ83" s="177"/>
+      <c r="CR83" s="177"/>
+      <c r="CS83" s="178"/>
     </row>
-    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A84" s="122"/>
-      <c r="B84" s="123"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="123"/>
-      <c r="G84" s="123"/>
-      <c r="H84" s="123"/>
-      <c r="I84" s="123"/>
-      <c r="J84" s="124"/>
+    <row r="84" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A84" s="121"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="112"/>
+      <c r="G84" s="112"/>
+      <c r="H84" s="112"/>
+      <c r="I84" s="112"/>
+      <c r="J84" s="113"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -13388,36 +14968,64 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="29"/>
-      <c r="Y84" s="42"/>
-      <c r="Z84" s="43"/>
-      <c r="AA84" s="43"/>
-      <c r="AB84" s="43"/>
-      <c r="AC84" s="43"/>
-      <c r="AD84" s="43"/>
-      <c r="AE84" s="43"/>
-      <c r="AF84" s="43"/>
-      <c r="AG84" s="43"/>
-      <c r="AH84" s="43"/>
-      <c r="AI84" s="43"/>
-      <c r="AJ84" s="43"/>
-      <c r="AK84" s="43"/>
-      <c r="AL84" s="44"/>
-      <c r="AQ84" s="42"/>
-      <c r="AR84" s="43"/>
-      <c r="AS84" s="43"/>
-      <c r="AT84" s="43"/>
-      <c r="AU84" s="43"/>
-      <c r="AV84" s="43"/>
-      <c r="AW84" s="43"/>
-      <c r="AX84" s="43"/>
-      <c r="AY84" s="43"/>
-      <c r="AZ84" s="43"/>
-      <c r="BA84" s="43"/>
-      <c r="BB84" s="43"/>
-      <c r="BC84" s="43"/>
-      <c r="BD84" s="44"/>
+      <c r="Y84" s="167"/>
+      <c r="Z84" s="168"/>
+      <c r="AA84" s="168"/>
+      <c r="AB84" s="168"/>
+      <c r="AC84" s="168"/>
+      <c r="AD84" s="168"/>
+      <c r="AE84" s="168"/>
+      <c r="AF84" s="168"/>
+      <c r="AG84" s="168"/>
+      <c r="AH84" s="168"/>
+      <c r="AI84" s="168"/>
+      <c r="AJ84" s="168"/>
+      <c r="AK84" s="168"/>
+      <c r="AL84" s="169"/>
+      <c r="AQ84" s="167"/>
+      <c r="AR84" s="168"/>
+      <c r="AS84" s="168"/>
+      <c r="AT84" s="168"/>
+      <c r="AU84" s="168"/>
+      <c r="AV84" s="168"/>
+      <c r="AW84" s="168"/>
+      <c r="AX84" s="168"/>
+      <c r="AY84" s="168"/>
+      <c r="AZ84" s="168"/>
+      <c r="BA84" s="168"/>
+      <c r="BB84" s="168"/>
+      <c r="BC84" s="168"/>
+      <c r="BD84" s="169"/>
+      <c r="BN84" s="179"/>
+      <c r="BO84" s="180"/>
+      <c r="BP84" s="180"/>
+      <c r="BQ84" s="180"/>
+      <c r="BR84" s="180"/>
+      <c r="BS84" s="180"/>
+      <c r="BT84" s="180"/>
+      <c r="BU84" s="180"/>
+      <c r="BV84" s="180"/>
+      <c r="BW84" s="180"/>
+      <c r="BX84" s="180"/>
+      <c r="BY84" s="180"/>
+      <c r="BZ84" s="180"/>
+      <c r="CA84" s="181"/>
+      <c r="CF84" s="179"/>
+      <c r="CG84" s="180"/>
+      <c r="CH84" s="180"/>
+      <c r="CI84" s="180"/>
+      <c r="CJ84" s="180"/>
+      <c r="CK84" s="180"/>
+      <c r="CL84" s="180"/>
+      <c r="CM84" s="180"/>
+      <c r="CN84" s="180"/>
+      <c r="CO84" s="180"/>
+      <c r="CP84" s="180"/>
+      <c r="CQ84" s="180"/>
+      <c r="CR84" s="180"/>
+      <c r="CS84" s="181"/>
     </row>
-    <row r="85" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -13442,7 +15050,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="29"/>
     </row>
-    <row r="86" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A86" s="28"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -13467,7 +15075,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="29"/>
     </row>
-    <row r="87" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -13492,7 +15100,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="29"/>
     </row>
-    <row r="88" spans="1:56" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:97" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="31"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -13516,40 +15124,70 @@
       <c r="U88" s="32"/>
       <c r="V88" s="32"/>
       <c r="W88" s="33"/>
-      <c r="AH88" s="45" t="s">
+      <c r="AH88" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="AI88" s="46"/>
-      <c r="AJ88" s="46"/>
-      <c r="AK88" s="46"/>
-      <c r="AL88" s="46"/>
-      <c r="AM88" s="46"/>
-      <c r="AN88" s="46"/>
-      <c r="AO88" s="46"/>
-      <c r="AP88" s="46"/>
-      <c r="AQ88" s="46"/>
-      <c r="AR88" s="46"/>
-      <c r="AS88" s="46"/>
-      <c r="AT88" s="46"/>
-      <c r="AU88" s="47"/>
+      <c r="AI88" s="171"/>
+      <c r="AJ88" s="171"/>
+      <c r="AK88" s="171"/>
+      <c r="AL88" s="171"/>
+      <c r="AM88" s="171"/>
+      <c r="AN88" s="171"/>
+      <c r="AO88" s="171"/>
+      <c r="AP88" s="171"/>
+      <c r="AQ88" s="171"/>
+      <c r="AR88" s="171"/>
+      <c r="AS88" s="171"/>
+      <c r="AT88" s="171"/>
+      <c r="AU88" s="172"/>
+      <c r="BW88" s="170" t="s">
+        <v>77</v>
+      </c>
+      <c r="BX88" s="171"/>
+      <c r="BY88" s="171"/>
+      <c r="BZ88" s="171"/>
+      <c r="CA88" s="171"/>
+      <c r="CB88" s="171"/>
+      <c r="CC88" s="171"/>
+      <c r="CD88" s="171"/>
+      <c r="CE88" s="171"/>
+      <c r="CF88" s="171"/>
+      <c r="CG88" s="171"/>
+      <c r="CH88" s="171"/>
+      <c r="CI88" s="171"/>
+      <c r="CJ88" s="172"/>
     </row>
-    <row r="89" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AH89" s="48"/>
-      <c r="AI89" s="49"/>
-      <c r="AJ89" s="49"/>
-      <c r="AK89" s="49"/>
-      <c r="AL89" s="49"/>
-      <c r="AM89" s="49"/>
-      <c r="AN89" s="49"/>
-      <c r="AO89" s="49"/>
-      <c r="AP89" s="49"/>
-      <c r="AQ89" s="49"/>
-      <c r="AR89" s="49"/>
-      <c r="AS89" s="49"/>
-      <c r="AT89" s="49"/>
-      <c r="AU89" s="50"/>
+    <row r="89" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="AH89" s="173"/>
+      <c r="AI89" s="174"/>
+      <c r="AJ89" s="174"/>
+      <c r="AK89" s="174"/>
+      <c r="AL89" s="174"/>
+      <c r="AM89" s="174"/>
+      <c r="AN89" s="174"/>
+      <c r="AO89" s="174"/>
+      <c r="AP89" s="174"/>
+      <c r="AQ89" s="174"/>
+      <c r="AR89" s="174"/>
+      <c r="AS89" s="174"/>
+      <c r="AT89" s="174"/>
+      <c r="AU89" s="175"/>
+      <c r="BW89" s="173"/>
+      <c r="BX89" s="174"/>
+      <c r="BY89" s="174"/>
+      <c r="BZ89" s="174"/>
+      <c r="CA89" s="174"/>
+      <c r="CB89" s="174"/>
+      <c r="CC89" s="174"/>
+      <c r="CD89" s="174"/>
+      <c r="CE89" s="174"/>
+      <c r="CF89" s="174"/>
+      <c r="CG89" s="174"/>
+      <c r="CH89" s="174"/>
+      <c r="CI89" s="174"/>
+      <c r="CJ89" s="175"/>
     </row>
-    <row r="96" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:97" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="30:73" x14ac:dyDescent="0.25">
       <c r="BS99" s="3"/>
       <c r="BT99" s="3"/>
@@ -13561,64 +15199,54 @@
       <c r="AG106" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="DS16:DX17"/>
-    <mergeCell ref="DF8:DO9"/>
-    <mergeCell ref="DF12:DO13"/>
-    <mergeCell ref="DS12:DX13"/>
-    <mergeCell ref="DS8:DX9"/>
-    <mergeCell ref="CK2:CO3"/>
-    <mergeCell ref="CU2:DB3"/>
-    <mergeCell ref="DF4:DO5"/>
-    <mergeCell ref="CI6:CQ7"/>
-    <mergeCell ref="CU6:DB7"/>
-    <mergeCell ref="BB16:BJ17"/>
-    <mergeCell ref="DF16:DO17"/>
-    <mergeCell ref="BB18:BJ19"/>
-    <mergeCell ref="BB24:BJ25"/>
-    <mergeCell ref="AQ49:AX50"/>
-    <mergeCell ref="AL18:AM31"/>
-    <mergeCell ref="BN18:BW19"/>
-    <mergeCell ref="BN34:BW35"/>
-    <mergeCell ref="AQ26:AX27"/>
-    <mergeCell ref="AQ28:AX29"/>
-    <mergeCell ref="AQ20:AX21"/>
-    <mergeCell ref="BN44:BW45"/>
-    <mergeCell ref="BB26:BJ27"/>
-    <mergeCell ref="BB34:BJ35"/>
-    <mergeCell ref="AQ30:AX31"/>
-    <mergeCell ref="BB36:BJ37"/>
-    <mergeCell ref="BB28:BJ29"/>
-    <mergeCell ref="AQ24:AX25"/>
-    <mergeCell ref="AQ22:AX23"/>
-    <mergeCell ref="A62:J63"/>
-    <mergeCell ref="AQ44:AX45"/>
-    <mergeCell ref="AQ46:AX47"/>
-    <mergeCell ref="L82:U83"/>
-    <mergeCell ref="L76:U77"/>
-    <mergeCell ref="L78:U79"/>
-    <mergeCell ref="L80:U81"/>
-    <mergeCell ref="L74:U75"/>
-    <mergeCell ref="A79:J80"/>
-    <mergeCell ref="A81:J82"/>
-    <mergeCell ref="A83:J84"/>
-    <mergeCell ref="A77:J78"/>
-    <mergeCell ref="A75:J76"/>
-    <mergeCell ref="A70:J71"/>
-    <mergeCell ref="A72:J73"/>
-    <mergeCell ref="L66:U67"/>
-    <mergeCell ref="L68:U69"/>
-    <mergeCell ref="L70:U71"/>
-    <mergeCell ref="A68:J69"/>
-    <mergeCell ref="L64:U65"/>
-    <mergeCell ref="BB38:BJ39"/>
-    <mergeCell ref="L62:U63"/>
-    <mergeCell ref="AQ40:AX41"/>
-    <mergeCell ref="BB46:BJ47"/>
-    <mergeCell ref="A64:J65"/>
-    <mergeCell ref="A66:J67"/>
-    <mergeCell ref="AQ38:AX39"/>
-    <mergeCell ref="BB44:BJ45"/>
+  <mergeCells count="129">
+    <mergeCell ref="BN80:CA81"/>
+    <mergeCell ref="CF80:CS81"/>
+    <mergeCell ref="BN83:CA84"/>
+    <mergeCell ref="CF83:CS84"/>
+    <mergeCell ref="BW88:CJ89"/>
+    <mergeCell ref="BN65:CA66"/>
+    <mergeCell ref="CF65:CS66"/>
+    <mergeCell ref="BN68:CA69"/>
+    <mergeCell ref="CF68:CS69"/>
+    <mergeCell ref="BN71:CA72"/>
+    <mergeCell ref="CF71:CS72"/>
+    <mergeCell ref="BN74:CA75"/>
+    <mergeCell ref="CF74:CS75"/>
+    <mergeCell ref="BN77:CA78"/>
+    <mergeCell ref="CF77:CS78"/>
+    <mergeCell ref="AQ65:BD66"/>
+    <mergeCell ref="AQ68:BD69"/>
+    <mergeCell ref="Y65:AL66"/>
+    <mergeCell ref="AH88:AU89"/>
+    <mergeCell ref="Y68:AL69"/>
+    <mergeCell ref="Y71:AL72"/>
+    <mergeCell ref="Y74:AL75"/>
+    <mergeCell ref="Y80:AL81"/>
+    <mergeCell ref="Y83:AL84"/>
+    <mergeCell ref="AQ71:BD72"/>
+    <mergeCell ref="AQ74:BD75"/>
+    <mergeCell ref="AQ77:BD78"/>
+    <mergeCell ref="AQ80:BD81"/>
+    <mergeCell ref="AQ83:BD84"/>
+    <mergeCell ref="BB30:BJ31"/>
+    <mergeCell ref="BB32:BJ33"/>
+    <mergeCell ref="CU18:DB19"/>
+    <mergeCell ref="CQ10:CR15"/>
+    <mergeCell ref="CU14:DB15"/>
+    <mergeCell ref="BN48:BW49"/>
+    <mergeCell ref="BN36:BW37"/>
+    <mergeCell ref="BN28:BW29"/>
+    <mergeCell ref="BN14:BW15"/>
+    <mergeCell ref="BN16:BW17"/>
+    <mergeCell ref="BN24:BW25"/>
+    <mergeCell ref="BN26:BW27"/>
+    <mergeCell ref="BN30:BW31"/>
+    <mergeCell ref="BN32:BW33"/>
+    <mergeCell ref="CU10:DB11"/>
+    <mergeCell ref="BN46:BW47"/>
+    <mergeCell ref="BN38:BW39"/>
+    <mergeCell ref="BN42:BW43"/>
     <mergeCell ref="AQ42:AX43"/>
     <mergeCell ref="BB42:BJ43"/>
     <mergeCell ref="AQ16:AX17"/>
@@ -13643,39 +15271,64 @@
     <mergeCell ref="BB20:BJ21"/>
     <mergeCell ref="AQ34:AX35"/>
     <mergeCell ref="AQ36:AX37"/>
-    <mergeCell ref="BB30:BJ31"/>
-    <mergeCell ref="BB32:BJ33"/>
-    <mergeCell ref="CU18:DB19"/>
-    <mergeCell ref="CQ10:CR15"/>
-    <mergeCell ref="CU14:DB15"/>
-    <mergeCell ref="BN48:BW49"/>
-    <mergeCell ref="BN36:BW37"/>
-    <mergeCell ref="BN28:BW29"/>
-    <mergeCell ref="BN14:BW15"/>
-    <mergeCell ref="BN16:BW17"/>
-    <mergeCell ref="BN24:BW25"/>
-    <mergeCell ref="BN26:BW27"/>
-    <mergeCell ref="BN30:BW31"/>
-    <mergeCell ref="BN32:BW33"/>
-    <mergeCell ref="CU10:DB11"/>
-    <mergeCell ref="BN46:BW47"/>
-    <mergeCell ref="BN38:BW39"/>
-    <mergeCell ref="BN42:BW43"/>
+    <mergeCell ref="A62:J63"/>
+    <mergeCell ref="AQ44:AX45"/>
+    <mergeCell ref="AQ46:AX47"/>
+    <mergeCell ref="L82:U83"/>
+    <mergeCell ref="L76:U77"/>
+    <mergeCell ref="L78:U79"/>
+    <mergeCell ref="L80:U81"/>
+    <mergeCell ref="L74:U75"/>
+    <mergeCell ref="A79:J80"/>
+    <mergeCell ref="A81:J82"/>
+    <mergeCell ref="A83:J84"/>
+    <mergeCell ref="A77:J78"/>
+    <mergeCell ref="A75:J76"/>
+    <mergeCell ref="A70:J71"/>
+    <mergeCell ref="A72:J73"/>
+    <mergeCell ref="L66:U67"/>
+    <mergeCell ref="L68:U69"/>
+    <mergeCell ref="L70:U71"/>
+    <mergeCell ref="A68:J69"/>
+    <mergeCell ref="L64:U65"/>
+    <mergeCell ref="L62:U63"/>
+    <mergeCell ref="A64:J65"/>
+    <mergeCell ref="A66:J67"/>
     <mergeCell ref="Y77:AL78"/>
-    <mergeCell ref="AQ65:BD66"/>
-    <mergeCell ref="AQ68:BD69"/>
-    <mergeCell ref="Y65:AL66"/>
-    <mergeCell ref="AH88:AU89"/>
-    <mergeCell ref="Y68:AL69"/>
-    <mergeCell ref="Y71:AL72"/>
-    <mergeCell ref="Y74:AL75"/>
-    <mergeCell ref="Y80:AL81"/>
-    <mergeCell ref="Y83:AL84"/>
-    <mergeCell ref="AQ71:BD72"/>
-    <mergeCell ref="AQ74:BD75"/>
-    <mergeCell ref="AQ77:BD78"/>
-    <mergeCell ref="AQ80:BD81"/>
-    <mergeCell ref="AQ83:BD84"/>
+    <mergeCell ref="BB16:BJ17"/>
+    <mergeCell ref="DF16:DO17"/>
+    <mergeCell ref="BB18:BJ19"/>
+    <mergeCell ref="BB24:BJ25"/>
+    <mergeCell ref="AQ49:AX50"/>
+    <mergeCell ref="AL18:AM31"/>
+    <mergeCell ref="BN18:BW19"/>
+    <mergeCell ref="BN34:BW35"/>
+    <mergeCell ref="AQ26:AX27"/>
+    <mergeCell ref="AQ28:AX29"/>
+    <mergeCell ref="AQ20:AX21"/>
+    <mergeCell ref="BN44:BW45"/>
+    <mergeCell ref="BB26:BJ27"/>
+    <mergeCell ref="BB34:BJ35"/>
+    <mergeCell ref="AQ30:AX31"/>
+    <mergeCell ref="BB36:BJ37"/>
+    <mergeCell ref="BB28:BJ29"/>
+    <mergeCell ref="AQ24:AX25"/>
+    <mergeCell ref="AQ22:AX23"/>
+    <mergeCell ref="BB38:BJ39"/>
+    <mergeCell ref="AQ40:AX41"/>
+    <mergeCell ref="BB46:BJ47"/>
+    <mergeCell ref="AQ38:AX39"/>
+    <mergeCell ref="BB44:BJ45"/>
+    <mergeCell ref="DS16:DX17"/>
+    <mergeCell ref="DF8:DO9"/>
+    <mergeCell ref="DF12:DO13"/>
+    <mergeCell ref="DS12:DX13"/>
+    <mergeCell ref="DS8:DX9"/>
+    <mergeCell ref="CK2:CO3"/>
+    <mergeCell ref="CU2:DB3"/>
+    <mergeCell ref="DF4:DO5"/>
+    <mergeCell ref="CI6:CQ7"/>
+    <mergeCell ref="CU6:DB7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
